--- a/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
+++ b/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent Concession" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,52 +13,54 @@
     <sheet name="FFF" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Alcomarket" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" name="RDcountry" vbProcedure="false">[1]SurveyBusinessPartner!$D$20:$D$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="167">
   <si>
     <t>Sorting</t>
   </si>
@@ -178,9 +180,6 @@
   </si>
   <si>
     <t>CCH Cooler</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
   </si>
   <si>
     <t>2
@@ -189,7 +188,7 @@
 5
 6
 7
-8 </t>
+8</t>
   </si>
   <si>
     <t>Coca-Cola - 0.5L</t>
@@ -255,7 +254,7 @@
     <t>Cooler Fullness</t>
   </si>
   <si>
-    <t>Заполненность холодильника </t>
+    <t>Заполненность холодильника</t>
   </si>
   <si>
     <t>Share of CCH coolers with facings target</t>
@@ -267,10 +266,35 @@
     <t>PROPORTIONAL</t>
   </si>
   <si>
+    <t>Cooler Standard – internal kpi</t>
+  </si>
+  <si>
+    <t>Internal kpi (for calculation only)</t>
+  </si>
+  <si>
+    <t>Weighted coller standard</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Sum (Atomic Score*  number of  scenes  atomic)/number of scenes all atomics</t>
+  </si>
+  <si>
+    <t>10
+ </t>
+  </si>
+  <si>
     <t>Cooler Standard</t>
   </si>
   <si>
-    <t>Стандарт оборудования </t>
+    <t>Стандарт оборудования</t>
+  </si>
+  <si>
+    <t>coller standard</t>
+  </si>
+  <si>
+    <t>Sum (atomic weight * number of scenes passed)/Sum (atomic weight * number of scenes checked)</t>
   </si>
   <si>
     <t>11
@@ -329,7 +353,7 @@
     <t>БонАква Негаз- 0,5л/Smart water - 0.6л   5  полка</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L shelf 4 </t>
+    <t>Fuze Lemon - 0.5L shelf 4</t>
   </si>
   <si>
     <t>Фьюз Лимон - 0.5л полка 4</t>
@@ -374,19 +398,13 @@
     <t>Cooler SSD, Cooler TEA, Cooler Water</t>
   </si>
   <si>
-    <t>БонАква Негаз- 0,5л/Smart water - 0.6л </t>
+    <t>БонАква Негаз- 0,5л/Smart water - 0.6л</t>
   </si>
   <si>
     <t>BonAqua Still - 0.5L /Smart water 0.5L</t>
   </si>
   <si>
     <t>Стандарт оборудования  ХО</t>
-  </si>
-  <si>
-    <t>Atomic Weighted Average</t>
-  </si>
-  <si>
-    <t>(Atomic score Cooler SSD*number of scenes Cooler SSD+Atomic score Cooler TEA standart*number of scenes Cooler TEA +Atomic score Cooler Water standart*number of scenes Cooler Water)/(number of scenes Cooler SSD+number of scenes Cooler TEA+number of scenes Cooler Water)</t>
   </si>
   <si>
     <t>11
@@ -394,16 +412,16 @@
 24</t>
   </si>
   <si>
-    <t>Cooler SSD Standard </t>
-  </si>
-  <si>
-    <t>Стандарт оборудования SSD   ХО </t>
-  </si>
-  <si>
-    <t>Sub Atomic Weighted Average</t>
+    <t>Cooler SSD Standard</t>
+  </si>
+  <si>
+    <t>Стандарт оборудования SSD   ХО</t>
   </si>
   <si>
     <t>Cooler SSD</t>
+  </si>
+  <si>
+    <t>Sum (sub-atomic weight * number of scenes passed)/Sum (sub-atomic weight * number of scenes checked)</t>
   </si>
   <si>
     <t>12
@@ -447,7 +465,7 @@
     <t>Кока-Кола - 0.5л 5 полка</t>
   </si>
   <si>
-    <t>Cooler Tea  Standard </t>
+    <t>Cooler Tea  Standard</t>
   </si>
   <si>
     <t>Стандарт оборудования  ХО Чай</t>
@@ -490,7 +508,7 @@
     <t>Coca-Cola - 0.5L  TEA shelf 5</t>
   </si>
   <si>
-    <t>Cooler Water Standard </t>
+    <t>Cooler Water Standard</t>
   </si>
   <si>
     <t>Стандарт оборудования     ХО  Вода</t>
@@ -554,7 +572,7 @@
     <t>Illumination Availability</t>
   </si>
   <si>
-    <t>Подсветка меню и топеров </t>
+    <t>Подсветка меню и топеров</t>
   </si>
   <si>
     <t>FFF</t>
@@ -564,9 +582,6 @@
   </si>
   <si>
     <t>БонАква Негаз- 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L  </t>
   </si>
   <si>
     <t>Кока-Кола - 0.5л/Кока-Кола Зеро - 0.5л  2 полка</t>
@@ -606,6 +621,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -627,23 +643,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -651,6 +671,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -658,9 +679,10 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +705,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -716,17 +750,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -767,7 +801,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,6 +898,70 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -924,6 +1022,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -956,10 +1058,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -968,71 +1066,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,26 +1094,70 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1076,23 +1170,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1104,15 +1198,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,6 +1220,38 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1144,7 +1274,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1209,7 +1339,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1241,46 +1371,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="22" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1415,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V2" s="12"/>
       <c r="W2" s="3"/>
@@ -1427,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="13"/>
       <c r="AE2" s="8"/>
@@ -1440,13 +1566,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>1</v>
@@ -1454,7 +1580,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>54491472</v>
@@ -1462,10 +1588,10 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>35</v>
@@ -1478,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="17" t="n">
         <v>0.0286</v>
@@ -1505,13 +1631,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>1</v>
@@ -1519,7 +1645,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>5449000131836</v>
@@ -1527,10 +1653,10 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>35</v>
@@ -1543,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="17" t="n">
         <v>0.0286</v>
@@ -1570,13 +1696,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>1</v>
@@ -1584,7 +1710,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="15" t="n">
         <v>40822938</v>
@@ -1592,10 +1718,10 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>35</v>
@@ -1608,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="17" t="n">
         <v>0.0286</v>
@@ -1635,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>1</v>
@@ -1649,7 +1775,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>54491069</v>
@@ -1657,10 +1783,10 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>35</v>
@@ -1673,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6" s="17" t="n">
         <v>0.0286</v>
@@ -1700,13 +1826,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>1</v>
@@ -1714,18 +1840,18 @@
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>35</v>
@@ -1738,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" s="17" t="n">
         <v>0.0286</v>
@@ -1765,13 +1891,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>1</v>
@@ -1779,7 +1905,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="15" t="n">
         <v>5449000189301</v>
@@ -1787,10 +1913,10 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>35</v>
@@ -1803,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V8" s="17" t="n">
         <v>0.0286</v>
@@ -1830,13 +1956,13 @@
         <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>1</v>
@@ -1844,7 +1970,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="15" t="n">
         <v>4607174577787</v>
@@ -1852,10 +1978,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>35</v>
@@ -1868,7 +1994,7 @@
         <v>8</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V9" s="17" t="n">
         <v>0.0286</v>
@@ -1895,13 +2021,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>22</v>
@@ -1909,18 +2035,18 @@
       <c r="G10" s="10"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>35</v>
@@ -1933,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.2</v>
@@ -1950,160 +2076,146 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
+    <row r="11" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="40" t="n">
         <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
-        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>67</v>
+      <c r="C12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="29" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>11</v>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="30" t="n">
-        <v>0.06</v>
+        <v>34</v>
+      </c>
+      <c r="V12" s="42" t="n">
+        <v>0.3</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="25" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="13"/>
       <c r="AE12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
-        <v>12</v>
+      <c r="A13" s="40" t="n">
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>69</v>
+      <c r="C13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="11" t="n">
         <v>7</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>70</v>
+      <c r="I13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="45" t="n">
+        <v>54491472</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>35</v>
@@ -2112,15 +2224,15 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" s="11" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V13" s="46" t="n">
         <v>0.06</v>
       </c>
       <c r="W13" s="3"/>
@@ -2132,45 +2244,45 @@
         <v>3</v>
       </c>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="25" t="s">
-        <v>63</v>
+      <c r="AD13" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
-        <v>13</v>
+      <c r="A14" s="40" t="n">
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>72</v>
+      <c r="C14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="29" t="n">
-        <v>5449000131836</v>
+      <c r="I14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>35</v>
@@ -2179,16 +2291,16 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>12</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" s="30" t="n">
-        <v>0.02667</v>
+        <v>42</v>
+      </c>
+      <c r="V14" s="46" t="n">
+        <v>0.06</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2199,45 +2311,45 @@
         <v>3</v>
       </c>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="25" t="s">
-        <v>63</v>
+      <c r="AD14" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
-        <v>14</v>
+      <c r="A15" s="40" t="n">
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>74</v>
+      <c r="C15" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="29" t="n">
-        <v>40822938</v>
+      <c r="I15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="45" t="n">
+        <v>5449000131836</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>35</v>
@@ -2248,14 +2360,14 @@
       <c r="S15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="T15" s="11" t="n">
-        <v>14</v>
+      <c r="T15" s="3" t="n">
+        <v>13</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="30" t="n">
-        <v>0.01332</v>
+        <v>42</v>
+      </c>
+      <c r="V15" s="46" t="n">
+        <v>0.02667</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -2266,45 +2378,45 @@
         <v>3</v>
       </c>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="25" t="s">
-        <v>63</v>
+      <c r="AD15" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
-        <v>15</v>
+      <c r="A16" s="40" t="n">
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>76</v>
+      <c r="C16" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="29" t="n">
-        <v>54491069</v>
+      <c r="I16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="45" t="n">
+        <v>40822938</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>35</v>
@@ -2315,14 +2427,14 @@
       <c r="S16" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="T16" s="3" t="n">
-        <v>15</v>
+      <c r="T16" s="11" t="n">
+        <v>14</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="30" t="n">
-        <v>0.02001</v>
+        <v>42</v>
+      </c>
+      <c r="V16" s="46" t="n">
+        <v>0.01332</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2333,45 +2445,45 @@
         <v>3</v>
       </c>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="25" t="s">
-        <v>63</v>
+      <c r="AD16" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
-        <v>16</v>
+      <c r="A17" s="40" t="n">
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>78</v>
+      <c r="C17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>53</v>
+      <c r="I17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="45" t="n">
+        <v>54491069</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>35</v>
@@ -2380,16 +2492,16 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="30" t="n">
-        <v>0.02</v>
+        <v>42</v>
+      </c>
+      <c r="V17" s="46" t="n">
+        <v>0.02001</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2400,45 +2512,45 @@
         <v>3</v>
       </c>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="25" t="s">
-        <v>63</v>
+      <c r="AD17" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
-        <v>17</v>
+      <c r="A18" s="40" t="n">
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>80</v>
+      <c r="C18" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>35</v>
@@ -2447,16 +2559,16 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="11" t="n">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="30" t="n">
-        <v>0.06</v>
+        <v>42</v>
+      </c>
+      <c r="V18" s="46" t="n">
+        <v>0.02</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2467,45 +2579,45 @@
         <v>3</v>
       </c>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="25" t="s">
-        <v>63</v>
+      <c r="AD18" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
-        <v>18</v>
+      <c r="A19" s="40" t="n">
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>82</v>
+      <c r="C19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="29" t="n">
-        <v>5449000189301</v>
+      <c r="I19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>35</v>
@@ -2514,16 +2626,16 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="30" t="n">
-        <v>0.02</v>
+        <v>42</v>
+      </c>
+      <c r="V19" s="46" t="n">
+        <v>0.06</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2534,45 +2646,45 @@
         <v>3</v>
       </c>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="25" t="s">
-        <v>63</v>
+      <c r="AD19" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
-        <v>19</v>
+      <c r="A20" s="40" t="n">
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>84</v>
+      <c r="C20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="29" t="n">
-        <v>4607174577787</v>
+      <c r="I20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="45" t="n">
+        <v>5449000189301</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>35</v>
@@ -2584,12 +2696,12 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V20" s="46" t="n">
         <v>0.02</v>
       </c>
       <c r="W20" s="3"/>
@@ -2601,57 +2713,63 @@
         <v>3</v>
       </c>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="25" t="s">
-        <v>63</v>
+      <c r="AD20" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
-        <v>20</v>
+      <c r="A21" s="40" t="n">
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>86</v>
+      <c r="C21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="45" t="n">
+        <v>4607174577787</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="30" t="n">
-        <v>0.1</v>
+        <v>19</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="46" t="n">
+        <v>0.02</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2659,44 +2777,46 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="AE21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
-        <v>21</v>
+      <c r="A22" s="40" t="n">
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>91</v>
+      <c r="C22" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="34" t="n">
-        <v>22</v>
+      <c r="J22" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="3"/>
@@ -2704,12 +2824,12 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="46" t="n">
         <v>0.1</v>
       </c>
       <c r="W22" s="3"/>
@@ -2725,37 +2845,37 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
-        <v>22</v>
+      <c r="A23" s="40" t="n">
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>93</v>
+      <c r="C23" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="34" t="n">
-        <v>23</v>
+      <c r="J23" s="50" t="n">
+        <v>22</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="3"/>
@@ -2763,12 +2883,12 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V23" s="30" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="46" t="n">
         <v>0.1</v>
       </c>
       <c r="W23" s="3"/>
@@ -2783,8 +2903,67 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="8"/>
     </row>
+    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="40" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="50" t="n">
+        <v>23</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE23"/>
+  <autoFilter ref="A1:AE24"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2803,25 +2982,26 @@
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="38" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="65.663967611336"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="37" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2835,7 +3015,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2853,7 +3033,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2907,7 +3087,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="57" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="13" t="s">
@@ -2921,16 +3101,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="55" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2940,13 +3120,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -2956,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V2" s="12"/>
       <c r="W2" s="3"/>
@@ -2964,30 +3144,30 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="40" t="n">
+      <c r="AB2" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="13"/>
       <c r="AE2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="55" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="60" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="19" t="n">
         <v>1</v>
@@ -2995,21 +3175,21 @@
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="44" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" s="61" t="n">
         <v>54491472</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -3019,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="17" t="n">
         <v>0.0286</v>
@@ -3029,7 +3209,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="40" t="n">
+      <c r="AB3" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC3" s="6"/>
@@ -3039,20 +3219,20 @@
       <c r="AE3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="55" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>40</v>
+      <c r="E4" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="19" t="n">
         <v>1</v>
@@ -3060,21 +3240,21 @@
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="44" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" s="61" t="n">
         <v>5449000131836</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -3084,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="17" t="n">
         <v>0.0286</v>
@@ -3094,7 +3274,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="40" t="n">
+      <c r="AB4" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC4" s="6"/>
@@ -3104,20 +3284,20 @@
       <c r="AE4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="55" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>40</v>
+      <c r="E5" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="19" t="n">
         <v>1</v>
@@ -3125,21 +3305,21 @@
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="44" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" s="61" t="n">
         <v>40822938</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3149,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="17" t="n">
         <v>0.0286</v>
@@ -3159,7 +3339,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="40" t="n">
+      <c r="AB5" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC5" s="6"/>
@@ -3169,20 +3349,20 @@
       <c r="AE5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="55" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>40</v>
+      <c r="E6" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="19" t="n">
         <v>1</v>
@@ -3190,21 +3370,21 @@
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="44" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" s="61" t="n">
         <v>54491069</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3214,7 +3394,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6" s="17" t="n">
         <v>0.0286</v>
@@ -3224,7 +3404,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="40" t="n">
+      <c r="AB6" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC6" s="6"/>
@@ -3234,20 +3414,20 @@
       <c r="AE6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="55" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>1</v>
@@ -3255,21 +3435,21 @@
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3279,7 +3459,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" s="17" t="n">
         <v>0.0286</v>
@@ -3289,7 +3469,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="40" t="n">
+      <c r="AB7" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC7" s="6"/>
@@ -3299,20 +3479,20 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="55" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>40</v>
+      <c r="E8" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="19" t="n">
         <v>1</v>
@@ -3320,21 +3500,21 @@
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="44" t="n">
+        <v>53</v>
+      </c>
+      <c r="J8" s="61" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -3344,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V8" s="17" t="n">
         <v>0.0286</v>
@@ -3354,7 +3534,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="40" t="n">
+      <c r="AB8" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC8" s="6"/>
@@ -3364,42 +3544,42 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="55" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>40</v>
+      <c r="E9" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="44" t="n">
+      <c r="H9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="61" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3409,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V9" s="17" t="n">
         <v>0.0286</v>
@@ -3419,7 +3599,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="40" t="n">
+      <c r="AB9" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC9" s="13"/>
@@ -3429,42 +3609,42 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="55" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>22</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>61</v>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3474,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.2</v>
@@ -3484,34 +3664,34 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="40" t="n">
+      <c r="AB10" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="3"/>
@@ -3525,52 +3705,52 @@
         <v>10</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="V11" s="42"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="49" t="s">
-        <v>100</v>
+      <c r="Y11" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="40" t="n">
+      <c r="AB11" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="50" t="s">
-        <v>105</v>
+      <c r="O12" s="67" t="s">
+        <v>109</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -3580,875 +3760,898 @@
         <v>11</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="V12" s="68" t="n">
+        <f aca="false">SUM(V13:V18)</f>
+        <v>0.033329</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="69" t="s">
+        <v>110</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="40" t="n">
+      <c r="AB12" s="57" t="n">
         <v>3</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD12" s="25" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="AD12" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="55" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="61" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="67" t="n">
+        <v>12</v>
+      </c>
+      <c r="U13" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="AE13" s="78"/>
+    </row>
+    <row r="14" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="61" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="54" t="n">
+      <c r="N14" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" s="67" t="n">
+        <v>13</v>
+      </c>
+      <c r="U14" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE14" s="78"/>
+    </row>
+    <row r="15" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="55" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="56" t="n">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="61" t="n">
+        <v>5449000131836</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" s="67" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE15" s="78"/>
+    </row>
+    <row r="16" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="61" t="n">
+        <v>40822938</v>
+      </c>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" s="67" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="74" t="n">
+        <v>0.002962</v>
+      </c>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE16" s="78"/>
+    </row>
+    <row r="17" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="55" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="61" t="n">
+        <v>54491069</v>
+      </c>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" s="67" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="74" t="n">
+        <v>0.003703</v>
+      </c>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE17" s="78"/>
+    </row>
+    <row r="18" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="55" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="61" t="n">
         <v>54491472</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="50" t="s">
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="O18" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="67" t="n">
+        <v>17</v>
+      </c>
+      <c r="U18" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50" t="n">
+      <c r="V18" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="55" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67" t="n">
+        <v>18</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="68" t="n">
+        <f aca="false">SUM(V20:V24)</f>
+        <v>0.03333</v>
+      </c>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="55" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="81" t="n">
+        <v>5449000189301</v>
+      </c>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="T13" s="50" t="n">
-        <v>12</v>
-      </c>
-      <c r="U13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="58" t="n">
+      <c r="T20" s="67" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="74" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="59" t="n">
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AD13" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="62"/>
-    </row>
-    <row r="14" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="54" t="s">
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE20" s="78"/>
+    </row>
+    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="81" t="n">
+        <v>5449000189301</v>
+      </c>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="N21" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" s="67" t="n">
+        <v>20</v>
+      </c>
+      <c r="U21" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE21" s="78"/>
+    </row>
+    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="55" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="56" t="n">
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="84" t="n">
+        <v>4607174577787</v>
+      </c>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="67" t="n">
+        <v>21</v>
+      </c>
+      <c r="U22" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE22" s="78"/>
+    </row>
+    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="55" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="84" t="n">
+        <v>4607174577787</v>
+      </c>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" s="67" t="n">
+        <v>22</v>
+      </c>
+      <c r="U23" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="74" t="n">
+        <v>0.006666</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE23" s="78"/>
+    </row>
+    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="55" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="61" t="n">
         <v>54491472</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="50" t="s">
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="O24" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" s="67" t="n">
+        <v>23</v>
+      </c>
+      <c r="U24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="T14" s="50" t="n">
-        <v>13</v>
-      </c>
-      <c r="U14" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" s="58" t="n">
+      <c r="V24" s="74" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="59" t="n">
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AD14" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="62"/>
-    </row>
-    <row r="15" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="54" t="s">
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE24" s="78"/>
+    </row>
+    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="55" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="56" t="n">
-        <v>5449000131836</v>
-      </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50" t="n">
+      <c r="N25" s="67"/>
+      <c r="O25" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="67" t="n">
+        <v>24</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="68" t="n">
+        <f aca="false">SUM(V26:V30)</f>
+        <v>0.03333</v>
+      </c>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="T15" s="50" t="n">
-        <v>14</v>
-      </c>
-      <c r="U15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE15" s="62"/>
-    </row>
-    <row r="16" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="56" t="n">
-        <v>40822938</v>
-      </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" s="50" t="n">
-        <v>15</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="58" t="n">
-        <v>0.002962</v>
-      </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD16" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="62"/>
-    </row>
-    <row r="17" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="56" t="n">
-        <v>54491069</v>
-      </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" s="50" t="n">
-        <v>16</v>
-      </c>
-      <c r="U17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="58" t="n">
-        <v>0.003703</v>
-      </c>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE17" s="62"/>
-    </row>
-    <row r="18" s="60" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="56" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="50" t="n">
-        <v>17</v>
-      </c>
-      <c r="U18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE18" s="62"/>
-    </row>
-    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50" t="n">
-        <v>18</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="58"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="62"/>
-    </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="64" t="n">
-        <v>5449000189301</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="50" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE20" s="62"/>
-    </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="64" t="n">
-        <v>5449000189301</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" s="50" t="n">
-        <v>20</v>
-      </c>
-      <c r="U21" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE21" s="62"/>
-    </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="66" t="n">
-        <v>4607174577787</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T22" s="50" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD22" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE22" s="62"/>
-    </row>
-    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="66" t="n">
-        <v>4607174577787</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="T23" s="50" t="n">
-        <v>22</v>
-      </c>
-      <c r="U23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V23" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD23" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE23" s="62"/>
-    </row>
-    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="54" t="n">
-        <v>7</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="56" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" s="50" t="n">
-        <v>23</v>
-      </c>
-      <c r="U24" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V24" s="58" t="n">
-        <v>0.006666</v>
-      </c>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="59" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD24" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE24" s="62"/>
-    </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="T25" s="50" t="n">
-        <v>24</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" s="58"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="62"/>
+      <c r="AC25" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="78"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="55" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="11" t="n">
         <v>7</v>
@@ -4456,35 +4659,35 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>133</v>
+      <c r="O26" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="50" t="n">
+      <c r="S26" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="T26" s="50" t="n">
+      <c r="T26" s="67" t="n">
         <v>25</v>
       </c>
-      <c r="U26" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V26" s="58" t="n">
+      <c r="U26" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W26" s="3"/>
@@ -4492,30 +4695,30 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="40" t="n">
+      <c r="AB26" s="57" t="n">
         <v>4</v>
       </c>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="61" t="s">
-        <v>131</v>
+      <c r="AD26" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="AE26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="55" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>138</v>
+        <v>101</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="11" t="n">
         <v>7</v>
@@ -4523,35 +4726,35 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>133</v>
+      <c r="O27" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="50" t="n">
+      <c r="S27" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="T27" s="50" t="n">
+      <c r="T27" s="67" t="n">
         <v>26</v>
       </c>
-      <c r="U27" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V27" s="58" t="n">
+      <c r="U27" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W27" s="3"/>
@@ -4559,30 +4762,30 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="40" t="n">
+      <c r="AB27" s="57" t="n">
         <v>4</v>
       </c>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="61" t="s">
-        <v>131</v>
+      <c r="AD27" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="AE27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="55" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>145</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="11" t="n">
         <v>7</v>
@@ -4590,35 +4793,35 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>133</v>
+      <c r="O28" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="50" t="n">
+      <c r="S28" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="T28" s="50" t="n">
+      <c r="T28" s="67" t="n">
         <v>27</v>
       </c>
-      <c r="U28" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V28" s="58" t="n">
+      <c r="U28" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W28" s="3"/>
@@ -4626,30 +4829,30 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="40" t="n">
+      <c r="AB28" s="57" t="n">
         <v>4</v>
       </c>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="61" t="s">
-        <v>131</v>
+      <c r="AD28" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="AE28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="55" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>147</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="11" t="n">
         <v>7</v>
@@ -4657,66 +4860,67 @@
       <c r="G29" s="11"/>
       <c r="H29" s="3"/>
       <c r="I29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="K29" s="82"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="50" t="s">
-        <v>133</v>
+      <c r="O29" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="50" t="n">
+      <c r="S29" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="T29" s="50" t="n">
+      <c r="T29" s="67" t="n">
         <v>28</v>
       </c>
-      <c r="U29" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V29" s="58" t="n">
+      <c r="U29" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="74" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W29" s="30"/>
+      <c r="W29" s="46"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="40" t="n">
+      <c r="AB29" s="57" t="n">
         <v>4</v>
       </c>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="61" t="s">
-        <v>131</v>
+      <c r="AD29" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="8"/>
+      <c r="AF29" s="86"/>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="55" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>144</v>
+        <v>101</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="11" t="n">
         <v>7</v>
@@ -4724,98 +4928,99 @@
       <c r="G30" s="11"/>
       <c r="H30" s="3"/>
       <c r="I30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="K30" s="82"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="50" t="s">
-        <v>133</v>
+      <c r="O30" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="50" t="n">
+      <c r="S30" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="T30" s="50" t="n">
+      <c r="T30" s="67" t="n">
         <v>29</v>
       </c>
-      <c r="U30" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="V30" s="58" t="n">
+      <c r="U30" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="74" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W30" s="30"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="40" t="n">
+      <c r="AB30" s="57" t="n">
         <v>4</v>
       </c>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="61" t="s">
-        <v>131</v>
+      <c r="AD30" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="70"/>
+      <c r="AF30" s="87"/>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="55" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="F31" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="72" t="n">
+        <v>152</v>
+      </c>
+      <c r="J31" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50" t="n">
+      <c r="S31" s="67"/>
+      <c r="T31" s="67" t="n">
         <v>30</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V31" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V31" s="46" t="n">
         <v>0.2</v>
       </c>
       <c r="W31" s="3"/>
@@ -4823,61 +5028,61 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="40" t="n">
+      <c r="AB31" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="61"/>
+      <c r="AD31" s="77"/>
       <c r="AE31" s="13"/>
-      <c r="AF31" s="70"/>
+      <c r="AF31" s="87"/>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="55" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="64" t="n">
+        <v>152</v>
+      </c>
+      <c r="J32" s="81" t="n">
         <v>24</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="50" t="n">
+      <c r="T32" s="67" t="n">
         <v>31</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V32" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V32" s="46" t="n">
         <v>0.1</v>
       </c>
       <c r="W32" s="3"/>
@@ -4885,7 +5090,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="40" t="n">
+      <c r="AB32" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC32" s="2"/>
@@ -4893,52 +5098,52 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="55" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="64" t="n">
+        <v>152</v>
+      </c>
+      <c r="J33" s="81" t="n">
         <v>23</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="50" t="n">
+      <c r="T33" s="67" t="n">
         <v>32</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V33" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V33" s="46" t="n">
         <v>0.1</v>
       </c>
       <c r="W33" s="3"/>
@@ -4946,7 +5151,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="40" t="n">
+      <c r="AB33" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC33" s="2"/>
@@ -4954,52 +5159,52 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="55" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" s="11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="64" t="n">
+        <v>152</v>
+      </c>
+      <c r="J34" s="81" t="n">
         <v>16</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="50" t="n">
+      <c r="T34" s="67" t="n">
         <v>33</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V34" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V34" s="46" t="n">
         <v>0.1</v>
       </c>
       <c r="W34" s="3"/>
@@ -5007,7 +5212,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="40" t="n">
+      <c r="AB34" s="57" t="n">
         <v>2</v>
       </c>
       <c r="AC34" s="2"/>
@@ -5030,34 +5235,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC12" activeCellId="0" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="38" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="27" min="23" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="37" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5088,7 +5295,7 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="89" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5139,7 +5346,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="57" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="7" t="s">
@@ -5152,35 +5359,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="99.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="n">
+    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="90" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="82"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -5188,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V2" s="12" t="n">
         <f aca="false">SUM(V3:V9)</f>
@@ -5202,50 +5409,50 @@
         <v>2</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="13"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="n">
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="90" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="E3" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="F3" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="94"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="101" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="85" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86" t="s">
+      <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5253,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="17" t="n">
         <v>0.04714</v>
@@ -5271,45 +5478,45 @@
       </c>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="n">
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="90" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="101" t="n">
+        <v>5449000131836</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="85" t="n">
-        <v>5449000131836</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86" t="s">
+      <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="82"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -5317,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="17" t="n">
         <v>0.04714</v>
@@ -5335,45 +5542,45 @@
       </c>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="n">
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="90" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="101" t="n">
+        <v>40822938</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="85" t="n">
-        <v>40822938</v>
-      </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86" t="s">
+      <c r="N5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="82"/>
+      <c r="P5" s="97"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -5381,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="17" t="n">
         <v>0.04714</v>
@@ -5399,45 +5606,45 @@
       </c>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="n">
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="90" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="101" t="n">
+        <v>54491069</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="85" t="n">
-        <v>54491069</v>
-      </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86" t="s">
+      <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="82"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -5445,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6" s="17" t="n">
         <v>0.04714</v>
@@ -5463,45 +5670,45 @@
       </c>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="n">
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="90" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="101" t="n">
+        <v>40822426</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="85" t="n">
-        <v>40822426</v>
-      </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86" t="s">
+      <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="82"/>
+      <c r="P7" s="97"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -5509,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" s="17" t="n">
         <v>0.04714</v>
@@ -5527,45 +5734,45 @@
       </c>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="n">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="90" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="101" t="n">
+        <v>5449000189301</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="85" t="n">
-        <v>5449000189301</v>
-      </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86" t="s">
+      <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -5573,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V8" s="17" t="n">
         <v>0.04714</v>
@@ -5591,45 +5798,45 @@
       </c>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="n">
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="90" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="101" t="n">
+        <v>4607174577787</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="85" t="n">
-        <v>4607174577787</v>
-      </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81" t="s">
+      <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="82"/>
+      <c r="P9" s="97"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5637,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V9" s="17" t="n">
         <v>0.04714</v>
@@ -5655,45 +5862,45 @@
       </c>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="n">
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="90" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="E10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="99" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="84" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="82" t="s">
+      <c r="O10" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="82"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -5701,7 +5908,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.33</v>
@@ -5717,178 +5924,164 @@
       <c r="AD10" s="6"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="127.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89" t="n">
+    <row r="11" customFormat="false" ht="67.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="105"/>
+      <c r="B11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="113" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="77" t="s">
+      <c r="B12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="26" t="n">
-        <f aca="false">SUM(V12:V20)</f>
+      <c r="V12" s="42" t="n">
+        <f aca="false">SUM(V13:V21)</f>
         <v>0.34</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="13"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="77" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="31" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="30" t="n">
-        <v>0.068</v>
-      </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="25" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="13"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89" t="n">
-        <v>12</v>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="113" t="n">
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="92" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="47" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="77" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="77" t="s">
+      <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="82" t="s">
+      <c r="O13" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="82"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" s="11" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="V13" s="46" t="n">
         <v>0.068</v>
       </c>
       <c r="X13" s="3"/>
@@ -5899,63 +6092,63 @@
         <v>3</v>
       </c>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="25" t="s">
-        <v>63</v>
+      <c r="AD13" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="89" t="n">
-        <v>13</v>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="113" t="n">
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="92" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="31" t="n">
-        <v>5449000131836</v>
-      </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="77" t="s">
+      <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="82" t="s">
+      <c r="O14" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="82"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>12</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" s="30" t="n">
-        <v>0.030226</v>
+        <v>42</v>
+      </c>
+      <c r="V14" s="46" t="n">
+        <v>0.068</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -5965,63 +6158,63 @@
         <v>3</v>
       </c>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="25" t="s">
-        <v>63</v>
+      <c r="AD14" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="89" t="n">
-        <v>14</v>
+    <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="113" t="n">
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="47" t="n">
+        <v>5449000131836</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="31" t="n">
-        <v>40822938</v>
-      </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="77" t="s">
+      <c r="N15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="82"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="T15" s="11" t="n">
-        <v>14</v>
+      <c r="T15" s="3" t="n">
+        <v>13</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="30" t="n">
-        <v>0.015096</v>
+        <v>42</v>
+      </c>
+      <c r="V15" s="46" t="n">
+        <v>0.030226</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -6031,63 +6224,63 @@
         <v>3</v>
       </c>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="25" t="s">
-        <v>63</v>
+      <c r="AD15" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89" t="n">
-        <v>15</v>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="113" t="n">
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="94"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="47" t="n">
+        <v>40822938</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="31" t="n">
-        <v>54491069</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="77" t="s">
+      <c r="N16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="82" t="s">
+      <c r="O16" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="82"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="T16" s="3" t="n">
-        <v>15</v>
+      <c r="T16" s="11" t="n">
+        <v>14</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="30" t="n">
-        <v>0.022678</v>
+        <v>42</v>
+      </c>
+      <c r="V16" s="46" t="n">
+        <v>0.015096</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -6097,63 +6290,63 @@
         <v>3</v>
       </c>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="25" t="s">
-        <v>63</v>
+      <c r="AD16" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="89" t="n">
-        <v>16</v>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="113" t="n">
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="C17" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="47" t="n">
+        <v>54491069</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="79"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="77" t="s">
+      <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="82" t="s">
+      <c r="O17" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="82"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" s="11" t="n">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="30" t="n">
-        <v>0.0226666666666667</v>
+        <v>42</v>
+      </c>
+      <c r="V17" s="46" t="n">
+        <v>0.022678</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -6163,63 +6356,63 @@
         <v>3</v>
       </c>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="25" t="s">
-        <v>63</v>
+      <c r="AD17" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="89" t="n">
-        <v>17</v>
+    <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="113" t="n">
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="94"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="77" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="79"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="77" t="s">
+      <c r="N18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="82" t="s">
+      <c r="O18" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="82"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="T18" s="11" t="n">
+        <v>17</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="30" t="n">
-        <v>0.068</v>
+        <v>42</v>
+      </c>
+      <c r="V18" s="46" t="n">
+        <v>0.0226666666666667</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -6229,63 +6422,63 @@
         <v>3</v>
       </c>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="25" t="s">
-        <v>63</v>
+      <c r="AD18" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89" t="n">
-        <v>18</v>
+    <row r="19" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="113" t="n">
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="92" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="94"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="31" t="n">
-        <v>5449000189301</v>
-      </c>
-      <c r="K19" s="79"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="81" t="s">
+      <c r="N19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="82"/>
+      <c r="P19" s="97"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" s="11" t="n">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="30" t="n">
-        <v>0.0226666666666667</v>
+        <v>42</v>
+      </c>
+      <c r="V19" s="46" t="n">
+        <v>0.068</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -6295,65 +6488,65 @@
         <v>3</v>
       </c>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="25" t="s">
-        <v>63</v>
+      <c r="AD19" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="89" t="n">
-        <v>19</v>
+    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="113" t="n">
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="94"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="47" t="n">
+        <v>5449000189301</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="93" t="n">
-        <v>4607174577787</v>
-      </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="77" t="s">
+      <c r="N20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="82" t="s">
+      <c r="O20" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="82"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="T20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="30" t="n">
+      <c r="T20" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="46" t="n">
         <v>0.0226666666666667</v>
       </c>
-      <c r="X20" s="30"/>
+      <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -6361,18 +6554,84 @@
         <v>3</v>
       </c>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="113" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="117" t="n">
+        <v>4607174577787</v>
+      </c>
       <c r="K21" s="94"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="46" t="n">
+        <v>0.0226666666666667</v>
+      </c>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="118"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE20"/>
+  <autoFilter ref="A1:AE21"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6391,7 +6650,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6401,43 +6660,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="96" t="s">
+      <c r="G1" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="96" t="s">
+      <c r="K1" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="120" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6448,8 +6707,8 @@
       <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="97" t="s">
-        <v>162</v>
+      <c r="B4" s="121" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
+++ b/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent Concession" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
@@ -61,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="167">
   <si>
     <t>Sorting</t>
   </si>
@@ -615,7 +617,7 @@
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -672,6 +674,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -801,7 +809,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,6 +1106,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1286,7 +1298,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,24 +1390,24 @@
   </sheetPr>
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
@@ -1403,10 +1415,10 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="22" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="28" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2982,24 +2994,24 @@
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="66.1983805668016"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="24" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -3784,7 +3796,7 @@
       </c>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="n">
         <v>12</v>
       </c>
@@ -3819,7 +3831,7 @@
       <c r="N13" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="67" t="s">
+      <c r="O13" s="74" t="s">
         <v>109</v>
       </c>
       <c r="P13" s="67"/>
@@ -3834,7 +3846,7 @@
       <c r="U13" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="74" t="n">
+      <c r="V13" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W13" s="67"/>
@@ -3842,16 +3854,16 @@
       <c r="Y13" s="67"/>
       <c r="Z13" s="67"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="75" t="n">
+      <c r="AB13" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="77" t="s">
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE13" s="78"/>
-    </row>
-    <row r="14" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="79"/>
+    </row>
+    <row r="14" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="n">
         <v>13</v>
       </c>
@@ -3901,7 +3913,7 @@
       <c r="U14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="74" t="n">
+      <c r="V14" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W14" s="67"/>
@@ -3909,16 +3921,16 @@
       <c r="Y14" s="67"/>
       <c r="Z14" s="67"/>
       <c r="AA14" s="67"/>
-      <c r="AB14" s="75" t="n">
+      <c r="AB14" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77" t="s">
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE14" s="78"/>
-    </row>
-    <row r="15" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE14" s="79"/>
+    </row>
+    <row r="15" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="n">
         <v>14</v>
       </c>
@@ -3968,7 +3980,7 @@
       <c r="U15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="74" t="n">
+      <c r="V15" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W15" s="67"/>
@@ -3976,16 +3988,16 @@
       <c r="Y15" s="67"/>
       <c r="Z15" s="67"/>
       <c r="AA15" s="67"/>
-      <c r="AB15" s="75" t="n">
+      <c r="AB15" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="77" t="s">
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE15" s="78"/>
-    </row>
-    <row r="16" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE15" s="79"/>
+    </row>
+    <row r="16" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="n">
         <v>15</v>
       </c>
@@ -4035,7 +4047,7 @@
       <c r="U16" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="74" t="n">
+      <c r="V16" s="75" t="n">
         <v>0.002962</v>
       </c>
       <c r="W16" s="67"/>
@@ -4043,16 +4055,16 @@
       <c r="Y16" s="67"/>
       <c r="Z16" s="67"/>
       <c r="AA16" s="67"/>
-      <c r="AB16" s="75" t="n">
+      <c r="AB16" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="77" t="s">
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE16" s="78"/>
-    </row>
-    <row r="17" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE16" s="79"/>
+    </row>
+    <row r="17" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="n">
         <v>16</v>
       </c>
@@ -4102,7 +4114,7 @@
       <c r="U17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="74" t="n">
+      <c r="V17" s="75" t="n">
         <v>0.003703</v>
       </c>
       <c r="W17" s="67"/>
@@ -4110,16 +4122,16 @@
       <c r="Y17" s="67"/>
       <c r="Z17" s="67"/>
       <c r="AA17" s="67"/>
-      <c r="AB17" s="75" t="n">
+      <c r="AB17" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="77" t="s">
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE17" s="78"/>
-    </row>
-    <row r="18" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="79"/>
+    </row>
+    <row r="18" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="n">
         <v>17</v>
       </c>
@@ -4169,7 +4181,7 @@
       <c r="U18" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="74" t="n">
+      <c r="V18" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W18" s="67"/>
@@ -4177,14 +4189,14 @@
       <c r="Y18" s="67"/>
       <c r="Z18" s="67"/>
       <c r="AA18" s="67"/>
-      <c r="AB18" s="75" t="n">
+      <c r="AB18" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="77" t="s">
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AE18" s="78"/>
+      <c r="AE18" s="79"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="n">
@@ -4232,17 +4244,19 @@
       </c>
       <c r="W19" s="67"/>
       <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
+      <c r="Y19" s="69" t="s">
+        <v>110</v>
+      </c>
       <c r="Z19" s="67"/>
       <c r="AA19" s="67"/>
-      <c r="AB19" s="75" t="n">
+      <c r="AB19" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="AC19" s="80" t="s">
+      <c r="AC19" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="79"/>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="n">
@@ -4268,7 +4282,7 @@
       <c r="I20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="81" t="n">
+      <c r="J20" s="82" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K20" s="73"/>
@@ -4294,7 +4308,7 @@
       <c r="U20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="74" t="n">
+      <c r="V20" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W20" s="67"/>
@@ -4302,14 +4316,14 @@
       <c r="Y20" s="67"/>
       <c r="Z20" s="67"/>
       <c r="AA20" s="67"/>
-      <c r="AB20" s="75" t="n">
+      <c r="AB20" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="77" t="s">
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="AE20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="n">
@@ -4335,7 +4349,7 @@
       <c r="I21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="81" t="n">
+      <c r="J21" s="82" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K21" s="73"/>
@@ -4361,7 +4375,7 @@
       <c r="U21" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="74" t="n">
+      <c r="V21" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W21" s="67"/>
@@ -4369,14 +4383,14 @@
       <c r="Y21" s="67"/>
       <c r="Z21" s="67"/>
       <c r="AA21" s="67"/>
-      <c r="AB21" s="75" t="n">
+      <c r="AB21" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="77" t="s">
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="AE21" s="78"/>
+      <c r="AE21" s="79"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="n">
@@ -4388,7 +4402,7 @@
       <c r="C22" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="84" t="s">
         <v>132</v>
       </c>
       <c r="E22" s="60" t="s">
@@ -4402,7 +4416,7 @@
       <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="84" t="n">
+      <c r="J22" s="85" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K22" s="73"/>
@@ -4428,7 +4442,7 @@
       <c r="U22" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="74" t="n">
+      <c r="V22" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W22" s="67"/>
@@ -4436,14 +4450,14 @@
       <c r="Y22" s="67"/>
       <c r="Z22" s="67"/>
       <c r="AA22" s="67"/>
-      <c r="AB22" s="75" t="n">
+      <c r="AB22" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="77" t="s">
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="AE22" s="78"/>
+      <c r="AE22" s="79"/>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="n">
@@ -4455,7 +4469,7 @@
       <c r="C23" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="84" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="60" t="s">
@@ -4469,7 +4483,7 @@
       <c r="I23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="84" t="n">
+      <c r="J23" s="85" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K23" s="73"/>
@@ -4495,7 +4509,7 @@
       <c r="U23" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="74" t="n">
+      <c r="V23" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W23" s="67"/>
@@ -4503,14 +4517,14 @@
       <c r="Y23" s="67"/>
       <c r="Z23" s="67"/>
       <c r="AA23" s="67"/>
-      <c r="AB23" s="75" t="n">
+      <c r="AB23" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="77" t="s">
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="78"/>
+      <c r="AE23" s="79"/>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="n">
@@ -4562,7 +4576,7 @@
       <c r="U24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="74" t="n">
+      <c r="V24" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W24" s="67"/>
@@ -4570,14 +4584,14 @@
       <c r="Y24" s="67"/>
       <c r="Z24" s="67"/>
       <c r="AA24" s="67"/>
-      <c r="AB24" s="75" t="n">
+      <c r="AB24" s="76" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="77" t="s">
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="AE24" s="78"/>
+      <c r="AE24" s="79"/>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="n">
@@ -4612,7 +4626,7 @@
       <c r="P25" s="67"/>
       <c r="Q25" s="67"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="82"/>
+      <c r="S25" s="83"/>
       <c r="T25" s="67" t="n">
         <v>24</v>
       </c>
@@ -4625,17 +4639,19 @@
       </c>
       <c r="W25" s="67"/>
       <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
+      <c r="Y25" s="69" t="s">
+        <v>110</v>
+      </c>
       <c r="Z25" s="67"/>
       <c r="AA25" s="67"/>
-      <c r="AB25" s="75" t="n">
+      <c r="AB25" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="AC25" s="80" t="s">
+      <c r="AC25" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="79"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="n">
@@ -4687,7 +4703,7 @@
       <c r="U26" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="74" t="n">
+      <c r="V26" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W26" s="3"/>
@@ -4699,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="77" t="s">
+      <c r="AD26" s="78" t="s">
         <v>136</v>
       </c>
       <c r="AE26" s="8"/>
@@ -4714,7 +4730,7 @@
       <c r="C27" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="86" t="s">
         <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -4754,7 +4770,7 @@
       <c r="U27" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V27" s="74" t="n">
+      <c r="V27" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W27" s="3"/>
@@ -4766,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="77" t="s">
+      <c r="AD27" s="78" t="s">
         <v>136</v>
       </c>
       <c r="AE27" s="8"/>
@@ -4781,7 +4797,7 @@
       <c r="C28" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>145</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -4821,7 +4837,7 @@
       <c r="U28" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="74" t="n">
+      <c r="V28" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W28" s="3"/>
@@ -4833,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="77" t="s">
+      <c r="AD28" s="78" t="s">
         <v>136</v>
       </c>
       <c r="AE28" s="8"/>
@@ -4848,7 +4864,7 @@
       <c r="C29" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>147</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -4865,7 +4881,7 @@
       <c r="J29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="82"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
         <v>40</v>
@@ -4888,7 +4904,7 @@
       <c r="U29" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V29" s="74" t="n">
+      <c r="V29" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W29" s="46"/>
@@ -4900,11 +4916,11 @@
         <v>4</v>
       </c>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="77" t="s">
+      <c r="AD29" s="78" t="s">
         <v>136</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="86"/>
+      <c r="AF29" s="87"/>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="55" t="n">
@@ -4916,7 +4932,7 @@
       <c r="C30" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="86" t="s">
         <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -4933,7 +4949,7 @@
       <c r="J30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="82"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
         <v>40</v>
@@ -4956,7 +4972,7 @@
       <c r="U30" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V30" s="74" t="n">
+      <c r="V30" s="75" t="n">
         <v>0.006666</v>
       </c>
       <c r="W30" s="46"/>
@@ -4968,11 +4984,11 @@
         <v>4</v>
       </c>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="77" t="s">
+      <c r="AD30" s="78" t="s">
         <v>136</v>
       </c>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="87"/>
+      <c r="AF30" s="88"/>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="n">
@@ -4998,7 +5014,7 @@
       <c r="I31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="88" t="n">
+      <c r="J31" s="89" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
@@ -5032,9 +5048,9 @@
         <v>2</v>
       </c>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="77"/>
+      <c r="AD31" s="78"/>
       <c r="AE31" s="13"/>
-      <c r="AF31" s="87"/>
+      <c r="AF31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="n">
@@ -5046,7 +5062,7 @@
       <c r="C32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="84" t="s">
         <v>154</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -5060,7 +5076,7 @@
       <c r="I32" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J32" s="81" t="n">
+      <c r="J32" s="82" t="n">
         <v>24</v>
       </c>
       <c r="K32" s="5"/>
@@ -5107,7 +5123,7 @@
       <c r="C33" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="84" t="s">
         <v>100</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -5121,7 +5137,7 @@
       <c r="I33" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="81" t="n">
+      <c r="J33" s="82" t="n">
         <v>23</v>
       </c>
       <c r="K33" s="5"/>
@@ -5182,7 +5198,7 @@
       <c r="I34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="81" t="n">
+      <c r="J34" s="82" t="n">
         <v>16</v>
       </c>
       <c r="K34" s="5"/>
@@ -5237,28 +5253,28 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC12" activeCellId="0" sqref="AC12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="24" min="23" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -5295,7 +5311,7 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="90" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5360,34 +5376,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="90" t="n">
+      <c r="A2" s="91" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="97"/>
+      <c r="P2" s="98"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -5415,44 +5431,44 @@
       <c r="AF2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="n">
+      <c r="A3" s="91" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="99" t="n">
+      <c r="F3" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="100"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="101" t="n">
+      <c r="J3" s="102" t="n">
         <v>54491472</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102" t="s">
+      <c r="K3" s="95"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="97"/>
+      <c r="P3" s="98"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5479,44 +5495,44 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90" t="n">
+      <c r="A4" s="91" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="99" t="n">
+      <c r="F4" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="100"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="101" t="n">
+      <c r="J4" s="102" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="97"/>
+      <c r="P4" s="98"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -5543,44 +5559,44 @@
       <c r="AF4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90" t="n">
+      <c r="A5" s="91" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="99" t="n">
+      <c r="F5" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="100"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="101" t="n">
+      <c r="J5" s="102" t="n">
         <v>40822938</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="97"/>
+      <c r="P5" s="98"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -5607,44 +5623,44 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90" t="n">
+      <c r="A6" s="91" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="99" t="n">
+      <c r="F6" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="100"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="101" t="n">
+      <c r="J6" s="102" t="n">
         <v>54491069</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="97" t="s">
+      <c r="O6" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="97"/>
+      <c r="P6" s="98"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -5671,44 +5687,44 @@
       <c r="AF6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90" t="n">
+      <c r="A7" s="91" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="99" t="n">
+      <c r="F7" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="100"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="101" t="n">
+      <c r="J7" s="102" t="n">
         <v>40822426</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102" t="s">
+      <c r="K7" s="95"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="97" t="s">
+      <c r="O7" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="97"/>
+      <c r="P7" s="98"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -5735,44 +5751,44 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90" t="n">
+      <c r="A8" s="91" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="99" t="n">
+      <c r="F8" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="100"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="101" t="n">
+      <c r="J8" s="102" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102" t="s">
+      <c r="K8" s="95"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="97" t="s">
+      <c r="O8" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="97"/>
+      <c r="P8" s="98"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -5799,44 +5815,44 @@
       <c r="AF8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90" t="n">
+      <c r="A9" s="91" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="99" t="n">
+      <c r="F9" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="100"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="101" t="n">
+      <c r="J9" s="102" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97" t="s">
         <v>40</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="97" t="s">
+      <c r="O9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="97"/>
+      <c r="P9" s="98"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5863,44 +5879,44 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90" t="n">
+      <c r="A10" s="91" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="99" t="n">
+      <c r="F10" s="100" t="n">
         <v>22</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="100"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="97" t="s">
+      <c r="O10" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="97"/>
+      <c r="P10" s="98"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -5925,7 +5941,7 @@
       <c r="AF10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="67.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="25" t="s">
         <v>157</v>
       </c>
@@ -5938,19 +5954,19 @@
       <c r="E11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="111" t="s">
+      <c r="O11" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="111"/>
+      <c r="P11" s="112"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -5959,7 +5975,7 @@
       </c>
       <c r="U11" s="29"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="112"/>
+      <c r="W11" s="113"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="36" t="s">
         <v>66</v>
@@ -5971,11 +5987,11 @@
         <v>67</v>
       </c>
       <c r="AD11" s="37"/>
-      <c r="AE11" s="112"/>
+      <c r="AE11" s="113"/>
       <c r="AF11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="113" t="n">
+      <c r="A12" s="114" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -5990,19 +6006,19 @@
       <c r="E12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="92"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="97" t="s">
+      <c r="O12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="97"/>
+      <c r="P12" s="98"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -6032,44 +6048,44 @@
       <c r="AF12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="113" t="n">
+      <c r="A13" s="114" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="92" t="n">
+      <c r="F13" s="93" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>54491472</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="92" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="97" t="s">
+      <c r="O13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="97"/>
+      <c r="P13" s="98"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="n">
@@ -6098,44 +6114,44 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="113" t="n">
+      <c r="A14" s="114" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="115" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="92" t="n">
+      <c r="F14" s="93" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="92"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="44" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="92" t="s">
+      <c r="K14" s="95"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="97" t="s">
+      <c r="O14" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="97"/>
+      <c r="P14" s="98"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="n">
@@ -6164,44 +6180,44 @@
       <c r="AF14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="113" t="n">
+      <c r="A15" s="114" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="92" t="n">
+      <c r="F15" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="92"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="44" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="47" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="92" t="s">
+      <c r="K15" s="95"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="97"/>
+      <c r="P15" s="98"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="n">
@@ -6230,44 +6246,44 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="n">
+      <c r="A16" s="114" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="92" t="n">
+      <c r="F16" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="92"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="44" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="47" t="n">
         <v>40822938</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="92" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="97"/>
+      <c r="P16" s="98"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11" t="n">
@@ -6296,44 +6312,44 @@
       <c r="AF16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="113" t="n">
+      <c r="A17" s="114" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92" t="n">
+      <c r="F17" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="92"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="44" t="s">
         <v>47</v>
       </c>
       <c r="J17" s="47" t="n">
         <v>54491069</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="92" t="s">
+      <c r="K17" s="95"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="97" t="s">
+      <c r="O17" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="97"/>
+      <c r="P17" s="98"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="n">
@@ -6362,44 +6378,44 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113" t="n">
+      <c r="A18" s="114" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="92" t="n">
+      <c r="F18" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="92"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="92" t="s">
+      <c r="K18" s="95"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="97" t="s">
+      <c r="O18" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="97"/>
+      <c r="P18" s="98"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11" t="n">
@@ -6428,44 +6444,44 @@
       <c r="AF18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="113" t="n">
+      <c r="A19" s="114" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="92" t="n">
+      <c r="F19" s="93" t="n">
         <v>7</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="92"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="92" t="s">
+      <c r="K19" s="95"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="97" t="s">
+      <c r="O19" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="97"/>
+      <c r="P19" s="98"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11" t="n">
@@ -6494,44 +6510,44 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="113" t="n">
+      <c r="A20" s="114" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="92" t="n">
+      <c r="F20" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="92"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="44" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="96" t="s">
+      <c r="K20" s="95"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="97" t="s">
         <v>40</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="97" t="s">
+      <c r="O20" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="97"/>
+      <c r="P20" s="98"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11" t="n">
@@ -6560,7 +6576,7 @@
       <c r="AF20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="113" t="n">
+      <c r="A21" s="114" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -6569,35 +6585,35 @@
       <c r="C21" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="92" t="n">
+      <c r="F21" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="92"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="117" t="n">
+      <c r="J21" s="118" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="92" t="s">
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="93" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="97" t="s">
+      <c r="O21" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="97"/>
+      <c r="P21" s="98"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
       <c r="S21" s="11" t="n">
@@ -6626,9 +6642,9 @@
       <c r="AF21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="118"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE21"/>
@@ -6660,43 +6676,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="121" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6707,7 +6723,7 @@
       <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="122" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
+++ b/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
@@ -8,39 +8,41 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Permanent Concession" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Permanent concession" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Temporary Concession" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="FFF" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Alcomarket" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Permanent concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
@@ -63,6 +65,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -74,117 +78,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="167">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>Permanent Concession</t>
-  </si>
-  <si>
-    <t>Assortiment Availability</t>
-  </si>
-  <si>
-    <t>Представленность  ассортимента</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>CCH Cooler</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="167">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent Concession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortiment Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность  ассортимента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -193,113 +197,109 @@
 8</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз/Smart water - 0.6л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L /Smart water 0.6L</t>
-  </si>
-  <si>
-    <t>40822426, 5449000034335</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Cooler Fullness</t>
-  </si>
-  <si>
-    <t>Заполненность холодильника</t>
-  </si>
-  <si>
-    <t>Share of CCH coolers with facings target</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Cooler Standard – internal kpi</t>
-  </si>
-  <si>
-    <t>Internal kpi (for calculation only)</t>
-  </si>
-  <si>
-    <t>Weighted coller standard</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Sum (Atomic Score*  number of  scenes  atomic)/number of scenes all atomics</t>
-  </si>
-  <si>
-    <t>10
- </t>
-  </si>
-  <si>
-    <t>Cooler Standard</t>
-  </si>
-  <si>
-    <t>Стандарт оборудования</t>
-  </si>
-  <si>
-    <t>coller standard</t>
-  </si>
-  <si>
-    <t>Sum (atomic weight * number of scenes passed)/Sum (atomic weight * number of scenes checked)</t>
-  </si>
-  <si>
-    <t>11
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз/Smart water - 0.6л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L /Smart water 0.6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822426, 5449000034335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Fullness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заполненность холодильника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH coolers with facings target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Standard – internal kpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal kpi (for calculation only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted coller standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum (Atomic Score*  number of  scenes  atomic)/number of scenes all atomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coller standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum (atomic weight * number of scenes passed)/Sum (atomic weight * number of scenes checked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11
 12
 13
 14
@@ -310,123 +310,123 @@
 19</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.5L  shelf 1</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л 1 полка</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L./Coca-Cola Zero - 0.5L  shelf 2</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л/ока-Кола Зеро - 0.5л  2 полка</t>
-  </si>
-  <si>
-    <t>54491472, 5449000131836</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L shelf 3</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л полка 3</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L shelf 3</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л полка 3</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L shelf 3</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л полка 3</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6 shelf 4</t>
-  </si>
-  <si>
-    <t>БонАква Негаз- 0,5л/Smart water - 0.6л 4 полка</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6 shelf 5</t>
-  </si>
-  <si>
-    <t>БонАква Негаз- 0,5л/Smart water - 0.6л   5  полка</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.5L shelf 4</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л полка 4</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L shelf 4</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л полка 4</t>
-  </si>
-  <si>
-    <t>Shrender Availability</t>
-  </si>
-  <si>
-    <t>Штендер</t>
-  </si>
-  <si>
-    <t>answer for survey</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>SURVEY</t>
-  </si>
-  <si>
-    <t>Uniform 50/50 Availability</t>
-  </si>
-  <si>
-    <t>Униформа сотрудников 50/50 с BUD</t>
-  </si>
-  <si>
-    <t>Glass Availability</t>
-  </si>
-  <si>
-    <t>Стакан соответствует игре и команде</t>
-  </si>
-  <si>
-    <t>Temporary Concession</t>
-  </si>
-  <si>
-    <t>Cooler SSD, Cooler TEA, Cooler Water</t>
-  </si>
-  <si>
-    <t>БонАква Негаз- 0,5л/Smart water - 0.6л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L /Smart water 0.5L</t>
-  </si>
-  <si>
-    <t>Стандарт оборудования  ХО</t>
-  </si>
-  <si>
-    <t>11
+    <t xml:space="preserve">Coca-Cola - 0.5L  shelf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л 1 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L./Coca-Cola Zero - 0.5L  shelf 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л/ока-Кола Зеро - 0.5л  2 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491472, 5449000131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л полка 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л полка 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л полка 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6 shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз- 0,5л/Smart water - 0.6л 4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6 shelf 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз- 0,5л/Smart water - 0.6л   5  полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.5L shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л полка 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л полка 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrender Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штендер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer for survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniform 50/50 Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Униформа сотрудников 50/50 с BUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стакан соответствует игре и команде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporary Concession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler SSD, Cooler TEA, Cooler Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз- 0,5л/Smart water - 0.6л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L /Smart water 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт оборудования  ХО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11
 18
 24</t>
   </si>
   <si>
-    <t>Cooler SSD Standard</t>
-  </si>
-  <si>
-    <t>Стандарт оборудования SSD   ХО</t>
-  </si>
-  <si>
-    <t>Cooler SSD</t>
-  </si>
-  <si>
-    <t>Sum (sub-atomic weight * number of scenes passed)/Sum (sub-atomic weight * number of scenes checked)</t>
-  </si>
-  <si>
-    <t>12
+    <t xml:space="preserve">Cooler SSD Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт оборудования SSD   ХО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum (sub-atomic weight * number of scenes passed)/Sum (sub-atomic weight * number of scenes checked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12
 13
 14
 15
@@ -434,177 +434,181 @@
 17</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.5L  SSD shelf 1</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L  SSD shelf 2</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л 2 полка</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L SSD Shelf 3</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л 3 полка</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L SSD shelf 4</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л 4 полка</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L SSD shelf 4</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л 4 полка</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L  SSD shelf 5</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л 5 полка</t>
-  </si>
-  <si>
-    <t>Cooler Tea  Standard</t>
-  </si>
-  <si>
-    <t>Стандарт оборудования  ХО Чай</t>
-  </si>
-  <si>
-    <t>Cooler TEA</t>
-  </si>
-  <si>
-    <t>19
+    <t xml:space="preserve">Coca-Cola - 0.5L  SSD shelf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L  SSD shelf 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л 2 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L SSD Shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л 3 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L SSD shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л 4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L SSD shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л 4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L  SSD shelf 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л 5 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Tea  Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт оборудования  ХО Чай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler TEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
 20
 21
 22
 23</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L TEA shelf 1</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л 1 полка</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.5L TEA shelf 2</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л 2 полка</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L TEA shelf 3</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л 3 полка</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L TEA shelf 4</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л 4 полка</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L  TEA shelf 5</t>
-  </si>
-  <si>
-    <t>Cooler Water Standard</t>
-  </si>
-  <si>
-    <t>Стандарт оборудования     ХО  Вода</t>
-  </si>
-  <si>
-    <t>Cooler Water</t>
-  </si>
-  <si>
-    <t>25
+    <t xml:space="preserve">Fuze Lemon - 0.5L TEA shelf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л 1 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.5L TEA shelf 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л 2 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L TEA shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л 3 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L TEA shelf 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л 4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L  TEA shelf 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Water Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт оборудования     ХО  Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
 26
 27
 28
 29</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L shelf 1</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5 л/Smart water - 0.6л  1 полка</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L shelf 2</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5 л/Smart water - 0.6л  2 полка</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L shelf 3</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5 л/Smart water - 0.6л 3 полка</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L shelf  4</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5 л/Smart water - 0.6л  4 полка</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L/Smart water - 0,6L shelf 5</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5 л/Smart water - 0.6л  5 полка</t>
-  </si>
-  <si>
-    <t>Combo Availability</t>
-  </si>
-  <si>
-    <t>Тейбл тент с комбо предложением</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Uniform Availability</t>
-  </si>
-  <si>
-    <t>Униформа FOH персонала</t>
-  </si>
-  <si>
-    <t>Illumination Availability</t>
-  </si>
-  <si>
-    <t>Подсветка меню и топеров</t>
-  </si>
-  <si>
-    <t>FFF</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз- 0.5л</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л/Кока-Кола Зеро - 0.5л  2 полка</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5л/Smart water - 0.6л 4 полка</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0,5л/Smart water - 0.6л  5  полка</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L shelf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5 л/Smart water - 0.6л  1 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L shelf 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5 л/Smart water - 0.6л  2 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L shelf 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5 л/Smart water - 0.6л 3 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L shelf  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5 л/Smart water - 0.6л  4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L/Smart water - 0,6L shelf 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5 л/Smart water - 0.6л  5 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тейбл тент с комбо предложением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniform Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Униформа FOH персонала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumination Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсветка меню и топеров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз- 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л/Кока-Кола Зеро - 0.5л  2 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5л/Smart water - 0.6л 4 полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0,5л/Smart water - 0.6л  5  полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -612,12 +616,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -674,12 +678,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -809,7 +807,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1106,10 +1104,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1298,7 +1292,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1393,21 +1387,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
@@ -1415,10 +1409,10 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="22" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="28" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2131,8 +2125,8 @@
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
       <c r="AB11" s="37"/>
-      <c r="AC11" s="38" t="s">
-        <v>67</v>
+      <c r="AC11" s="38" t="n">
+        <v>10</v>
       </c>
       <c r="AD11" s="37"/>
       <c r="AE11" s="39"/>
@@ -2145,13 +2139,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2181,7 +2175,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -2189,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="13"/>
       <c r="AE12" s="8"/>
@@ -2202,10 +2196,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -2257,7 +2251,7 @@
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE13" s="8"/>
     </row>
@@ -2269,10 +2263,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>39</v>
@@ -2286,7 +2280,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -2324,7 +2318,7 @@
       </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE14" s="8"/>
     </row>
@@ -2336,10 +2330,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>79</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>39</v>
@@ -2391,7 +2385,7 @@
       </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE15" s="8"/>
     </row>
@@ -2403,10 +2397,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>80</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>81</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
@@ -2458,7 +2452,7 @@
       </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE16" s="8"/>
     </row>
@@ -2470,10 +2464,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>39</v>
@@ -2525,7 +2519,7 @@
       </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE17" s="8"/>
     </row>
@@ -2537,10 +2531,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>39</v>
@@ -2592,7 +2586,7 @@
       </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE18" s="8"/>
     </row>
@@ -2604,10 +2598,10 @@
         <v>31</v>
       </c>
       <c r="C19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>87</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>39</v>
@@ -2659,7 +2653,7 @@
       </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE19" s="8"/>
     </row>
@@ -2671,10 +2665,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>39</v>
@@ -2726,7 +2720,7 @@
       </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE20" s="8"/>
     </row>
@@ -2738,10 +2732,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>39</v>
@@ -2793,7 +2787,7 @@
       </c>
       <c r="AC21" s="6"/>
       <c r="AD21" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE21" s="8"/>
     </row>
@@ -2805,16 +2799,16 @@
         <v>31</v>
       </c>
       <c r="C22" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="E22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2828,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="3"/>
@@ -2864,16 +2858,16 @@
         <v>31</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>98</v>
-      </c>
       <c r="E23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2887,7 +2881,7 @@
         <v>40</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="3"/>
@@ -2923,16 +2917,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="51" t="s">
-        <v>100</v>
-      </c>
       <c r="E24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2946,7 +2940,7 @@
         <v>40</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="3"/>
@@ -3001,17 +2995,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="24" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -3117,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>32</v>
@@ -3138,7 +3132,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -3170,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>37</v>
@@ -3201,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -3235,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>43</v>
@@ -3266,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -3300,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>45</v>
@@ -3331,7 +3325,7 @@
         <v>41</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3365,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>47</v>
@@ -3396,7 +3390,7 @@
         <v>41</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3430,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>39</v>
@@ -3447,7 +3441,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>52</v>
@@ -3461,7 +3455,7 @@
         <v>41</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3495,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>53</v>
@@ -3526,7 +3520,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -3560,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>55</v>
@@ -3591,7 +3585,7 @@
         <v>41</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3625,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>57</v>
@@ -3656,7 +3650,7 @@
         <v>41</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3688,13 +3682,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>64</v>
@@ -3731,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="8"/>
@@ -3741,16 +3735,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>108</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3762,7 +3756,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -3781,7 +3775,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -3789,25 +3783,25 @@
         <v>3</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD12" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="79" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="60" t="s">
         <v>39</v>
@@ -3831,8 +3825,8 @@
       <c r="N13" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="74" t="s">
-        <v>109</v>
+      <c r="O13" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="P13" s="67"/>
       <c r="Q13" s="67"/>
@@ -3846,7 +3840,7 @@
       <c r="U13" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="75" t="n">
+      <c r="V13" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W13" s="67"/>
@@ -3854,27 +3848,27 @@
       <c r="Y13" s="67"/>
       <c r="Z13" s="67"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="76" t="n">
+      <c r="AB13" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE13" s="79"/>
-    </row>
-    <row r="14" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE13" s="78"/>
+    </row>
+    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="72" t="s">
         <v>113</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>114</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>39</v>
@@ -3899,7 +3893,7 @@
         <v>41</v>
       </c>
       <c r="O14" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" s="67"/>
       <c r="Q14" s="67"/>
@@ -3913,7 +3907,7 @@
       <c r="U14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="75" t="n">
+      <c r="V14" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W14" s="67"/>
@@ -3921,27 +3915,27 @@
       <c r="Y14" s="67"/>
       <c r="Z14" s="67"/>
       <c r="AA14" s="67"/>
-      <c r="AB14" s="76" t="n">
+      <c r="AB14" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE14" s="79"/>
-    </row>
-    <row r="15" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE14" s="78"/>
+    </row>
+    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>115</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>116</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>39</v>
@@ -3966,7 +3960,7 @@
         <v>41</v>
       </c>
       <c r="O15" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="67"/>
       <c r="Q15" s="67"/>
@@ -3980,7 +3974,7 @@
       <c r="U15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="75" t="n">
+      <c r="V15" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W15" s="67"/>
@@ -3988,27 +3982,27 @@
       <c r="Y15" s="67"/>
       <c r="Z15" s="67"/>
       <c r="AA15" s="67"/>
-      <c r="AB15" s="76" t="n">
+      <c r="AB15" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE15" s="79"/>
-    </row>
-    <row r="16" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE15" s="78"/>
+    </row>
+    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>117</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>118</v>
       </c>
       <c r="E16" s="60" t="s">
         <v>39</v>
@@ -4033,7 +4027,7 @@
         <v>41</v>
       </c>
       <c r="O16" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="67"/>
       <c r="Q16" s="67"/>
@@ -4047,7 +4041,7 @@
       <c r="U16" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="75" t="n">
+      <c r="V16" s="74" t="n">
         <v>0.002962</v>
       </c>
       <c r="W16" s="67"/>
@@ -4055,27 +4049,27 @@
       <c r="Y16" s="67"/>
       <c r="Z16" s="67"/>
       <c r="AA16" s="67"/>
-      <c r="AB16" s="76" t="n">
+      <c r="AB16" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE16" s="79"/>
-    </row>
-    <row r="17" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE16" s="78"/>
+    </row>
+    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>119</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>120</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>39</v>
@@ -4100,7 +4094,7 @@
         <v>41</v>
       </c>
       <c r="O17" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" s="67"/>
       <c r="Q17" s="67"/>
@@ -4114,7 +4108,7 @@
       <c r="U17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="75" t="n">
+      <c r="V17" s="74" t="n">
         <v>0.003703</v>
       </c>
       <c r="W17" s="67"/>
@@ -4122,27 +4116,27 @@
       <c r="Y17" s="67"/>
       <c r="Z17" s="67"/>
       <c r="AA17" s="67"/>
-      <c r="AB17" s="76" t="n">
+      <c r="AB17" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE17" s="79"/>
-    </row>
-    <row r="18" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE17" s="78"/>
+    </row>
+    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>122</v>
       </c>
       <c r="E18" s="60" t="s">
         <v>39</v>
@@ -4167,7 +4161,7 @@
         <v>41</v>
       </c>
       <c r="O18" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" s="67"/>
       <c r="Q18" s="67"/>
@@ -4181,7 +4175,7 @@
       <c r="U18" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="75" t="n">
+      <c r="V18" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W18" s="67"/>
@@ -4189,30 +4183,30 @@
       <c r="Y18" s="67"/>
       <c r="Z18" s="67"/>
       <c r="AA18" s="67"/>
-      <c r="AB18" s="76" t="n">
+      <c r="AB18" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE18" s="79"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>124</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -4226,7 +4220,7 @@
       </c>
       <c r="N19" s="67"/>
       <c r="O19" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19" s="67"/>
       <c r="Q19" s="67"/>
@@ -4245,31 +4239,31 @@
       <c r="W19" s="67"/>
       <c r="X19" s="67"/>
       <c r="Y19" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z19" s="67"/>
       <c r="AA19" s="67"/>
-      <c r="AB19" s="76" t="n">
+      <c r="AB19" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="AC19" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="79"/>
+      <c r="AC19" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>128</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>39</v>
@@ -4282,7 +4276,7 @@
       <c r="I20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="82" t="n">
+      <c r="J20" s="81" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K20" s="73"/>
@@ -4294,7 +4288,7 @@
         <v>41</v>
       </c>
       <c r="O20" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P20" s="67"/>
       <c r="Q20" s="67"/>
@@ -4308,7 +4302,7 @@
       <c r="U20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="75" t="n">
+      <c r="V20" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W20" s="67"/>
@@ -4316,27 +4310,27 @@
       <c r="Y20" s="67"/>
       <c r="Z20" s="67"/>
       <c r="AA20" s="67"/>
-      <c r="AB20" s="76" t="n">
+      <c r="AB20" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE20" s="79"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>129</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>130</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>39</v>
@@ -4349,7 +4343,7 @@
       <c r="I21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="82" t="n">
+      <c r="J21" s="81" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K21" s="73"/>
@@ -4361,7 +4355,7 @@
         <v>41</v>
       </c>
       <c r="O21" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P21" s="67"/>
       <c r="Q21" s="67"/>
@@ -4375,7 +4369,7 @@
       <c r="U21" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="75" t="n">
+      <c r="V21" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W21" s="67"/>
@@ -4383,27 +4377,27 @@
       <c r="Y21" s="67"/>
       <c r="Z21" s="67"/>
       <c r="AA21" s="67"/>
-      <c r="AB21" s="76" t="n">
+      <c r="AB21" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE21" s="79"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="83" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>132</v>
       </c>
       <c r="E22" s="60" t="s">
         <v>39</v>
@@ -4416,7 +4410,7 @@
       <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="85" t="n">
+      <c r="J22" s="84" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K22" s="73"/>
@@ -4428,7 +4422,7 @@
         <v>41</v>
       </c>
       <c r="O22" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P22" s="67"/>
       <c r="Q22" s="67"/>
@@ -4442,7 +4436,7 @@
       <c r="U22" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="75" t="n">
+      <c r="V22" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W22" s="67"/>
@@ -4450,27 +4444,27 @@
       <c r="Y22" s="67"/>
       <c r="Z22" s="67"/>
       <c r="AA22" s="67"/>
-      <c r="AB22" s="76" t="n">
+      <c r="AB22" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE22" s="79"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="83" t="s">
         <v>133</v>
-      </c>
-      <c r="D23" s="84" t="s">
-        <v>134</v>
       </c>
       <c r="E23" s="60" t="s">
         <v>39</v>
@@ -4483,7 +4477,7 @@
       <c r="I23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="85" t="n">
+      <c r="J23" s="84" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K23" s="73"/>
@@ -4495,7 +4489,7 @@
         <v>41</v>
       </c>
       <c r="O23" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
@@ -4509,7 +4503,7 @@
       <c r="U23" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="75" t="n">
+      <c r="V23" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W23" s="67"/>
@@ -4517,27 +4511,27 @@
       <c r="Y23" s="67"/>
       <c r="Z23" s="67"/>
       <c r="AA23" s="67"/>
-      <c r="AB23" s="76" t="n">
+      <c r="AB23" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE23" s="79"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="60" t="s">
         <v>39</v>
@@ -4562,7 +4556,7 @@
         <v>41</v>
       </c>
       <c r="O24" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P24" s="67"/>
       <c r="Q24" s="67"/>
@@ -4576,7 +4570,7 @@
       <c r="U24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="75" t="n">
+      <c r="V24" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W24" s="67"/>
@@ -4584,30 +4578,30 @@
       <c r="Y24" s="67"/>
       <c r="Z24" s="67"/>
       <c r="AA24" s="67"/>
-      <c r="AB24" s="76" t="n">
+      <c r="AB24" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE24" s="79"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="72" t="s">
-        <v>137</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -4621,12 +4615,12 @@
       </c>
       <c r="N25" s="67"/>
       <c r="O25" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="67"/>
       <c r="Q25" s="67"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="83"/>
+      <c r="S25" s="82"/>
       <c r="T25" s="67" t="n">
         <v>24</v>
       </c>
@@ -4640,31 +4634,31 @@
       <c r="W25" s="67"/>
       <c r="X25" s="67"/>
       <c r="Y25" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z25" s="67"/>
       <c r="AA25" s="67"/>
-      <c r="AB25" s="76" t="n">
+      <c r="AB25" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="AC25" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
+      <c r="AC25" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="78"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="72" t="s">
         <v>140</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>141</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>39</v>
@@ -4689,7 +4683,7 @@
         <v>41</v>
       </c>
       <c r="O26" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -4703,7 +4697,7 @@
       <c r="U26" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="75" t="n">
+      <c r="V26" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W26" s="3"/>
@@ -4715,8 +4709,8 @@
         <v>4</v>
       </c>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="78" t="s">
-        <v>136</v>
+      <c r="AD26" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="AE26" s="8"/>
     </row>
@@ -4725,13 +4719,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="85" t="s">
         <v>142</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>39</v>
@@ -4756,7 +4750,7 @@
         <v>41</v>
       </c>
       <c r="O27" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4770,7 +4764,7 @@
       <c r="U27" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V27" s="75" t="n">
+      <c r="V27" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W27" s="3"/>
@@ -4782,8 +4776,8 @@
         <v>4</v>
       </c>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="78" t="s">
-        <v>136</v>
+      <c r="AD27" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="AE27" s="8"/>
     </row>
@@ -4792,13 +4786,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="85" t="s">
         <v>144</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>145</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>39</v>
@@ -4823,7 +4817,7 @@
         <v>41</v>
       </c>
       <c r="O28" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -4837,7 +4831,7 @@
       <c r="U28" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="75" t="n">
+      <c r="V28" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W28" s="3"/>
@@ -4849,8 +4843,8 @@
         <v>4</v>
       </c>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="78" t="s">
-        <v>136</v>
+      <c r="AD28" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="AE28" s="8"/>
     </row>
@@ -4859,13 +4853,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="85" t="s">
         <v>146</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>147</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>39</v>
@@ -4881,7 +4875,7 @@
       <c r="J29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="83"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
         <v>40</v>
@@ -4890,7 +4884,7 @@
         <v>41</v>
       </c>
       <c r="O29" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="3"/>
@@ -4904,7 +4898,7 @@
       <c r="U29" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V29" s="75" t="n">
+      <c r="V29" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W29" s="46"/>
@@ -4916,24 +4910,24 @@
         <v>4</v>
       </c>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="78" t="s">
-        <v>136</v>
+      <c r="AD29" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="87"/>
+      <c r="AF29" s="86"/>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="55" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="85" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>39</v>
@@ -4949,7 +4943,7 @@
       <c r="J30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="83"/>
+      <c r="K30" s="82"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
         <v>40</v>
@@ -4958,7 +4952,7 @@
         <v>41</v>
       </c>
       <c r="O30" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="3"/>
@@ -4972,7 +4966,7 @@
       <c r="U30" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="V30" s="75" t="n">
+      <c r="V30" s="74" t="n">
         <v>0.006666</v>
       </c>
       <c r="W30" s="46"/>
@@ -4984,37 +4978,37 @@
         <v>4</v>
       </c>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="78" t="s">
-        <v>136</v>
+      <c r="AD30" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="88"/>
+      <c r="AF30" s="87"/>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="72" t="s">
-        <v>151</v>
-      </c>
       <c r="E31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="89" t="n">
+        <v>151</v>
+      </c>
+      <c r="J31" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
@@ -5023,7 +5017,7 @@
         <v>40</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="3"/>
@@ -5048,35 +5042,35 @@
         <v>2</v>
       </c>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="78"/>
+      <c r="AD31" s="77"/>
       <c r="AE31" s="13"/>
-      <c r="AF31" s="88"/>
+      <c r="AF31" s="87"/>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="84" t="s">
-        <v>154</v>
-      </c>
       <c r="E32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J32" s="82" t="n">
+        <v>151</v>
+      </c>
+      <c r="J32" s="81" t="n">
         <v>24</v>
       </c>
       <c r="K32" s="5"/>
@@ -5085,7 +5079,7 @@
         <v>40</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="3"/>
@@ -5118,26 +5112,26 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="84" t="s">
-        <v>100</v>
-      </c>
       <c r="E33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="82" t="n">
+        <v>151</v>
+      </c>
+      <c r="J33" s="81" t="n">
         <v>23</v>
       </c>
       <c r="K33" s="5"/>
@@ -5146,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="3"/>
@@ -5179,26 +5173,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>156</v>
-      </c>
       <c r="E34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J34" s="82" t="n">
+        <v>151</v>
+      </c>
+      <c r="J34" s="81" t="n">
         <v>16</v>
       </c>
       <c r="K34" s="5"/>
@@ -5207,7 +5201,7 @@
         <v>40</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="3"/>
@@ -5261,20 +5255,20 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="24" min="23" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -5311,7 +5305,7 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5376,34 +5370,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91" t="n">
+      <c r="A2" s="90" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="94"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="98"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -5431,44 +5425,44 @@
       <c r="AF2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="91" t="n">
+      <c r="A3" s="90" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="100" t="n">
+      <c r="F3" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="102" t="n">
+      <c r="J3" s="101" t="n">
         <v>54491472</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="98"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5495,44 +5489,44 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="91" t="n">
+      <c r="A4" s="90" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="100" t="n">
+      <c r="F4" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="102" t="n">
+      <c r="J4" s="101" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="98"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -5559,44 +5553,44 @@
       <c r="AF4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91" t="n">
+      <c r="A5" s="90" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="100" t="n">
+      <c r="F5" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="102" t="n">
+      <c r="J5" s="101" t="n">
         <v>40822938</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103" t="s">
+      <c r="K5" s="94"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="98"/>
+      <c r="P5" s="97"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -5623,44 +5617,44 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="91" t="n">
+      <c r="A6" s="90" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="100" t="n">
+      <c r="F6" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="102" t="n">
+      <c r="J6" s="101" t="n">
         <v>54491069</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103" t="s">
+      <c r="K6" s="94"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="98" t="s">
+      <c r="O6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="98"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -5687,44 +5681,44 @@
       <c r="AF6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="n">
+      <c r="A7" s="90" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="D7" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="100" t="n">
+      <c r="F7" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="102" t="n">
+        <v>157</v>
+      </c>
+      <c r="J7" s="101" t="n">
         <v>40822426</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103" t="s">
+      <c r="K7" s="94"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="98"/>
+      <c r="P7" s="97"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -5751,44 +5745,44 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="91" t="n">
+      <c r="A8" s="90" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="100" t="n">
+      <c r="F8" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="102" t="n">
+      <c r="J8" s="101" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103" t="s">
+      <c r="K8" s="94"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="98"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -5815,44 +5809,44 @@
       <c r="AF8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91" t="n">
+      <c r="A9" s="90" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="100" t="n">
+      <c r="F9" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="102" t="n">
+      <c r="J9" s="101" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97" t="s">
+      <c r="K9" s="94"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96" t="s">
         <v>40</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="98" t="s">
+      <c r="O9" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="98"/>
+      <c r="P9" s="97"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5879,44 +5873,44 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91" t="n">
+      <c r="A10" s="90" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="100" t="n">
+      <c r="F10" s="99" t="n">
         <v>22</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97" t="s">
+      <c r="K10" s="94"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="98" t="s">
+      <c r="O10" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="98"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -5941,9 +5935,9 @@
       <c r="AF10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="67.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="106"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>62</v>
@@ -5954,19 +5948,19 @@
       <c r="E11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="112" t="s">
+      <c r="O11" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="112"/>
+      <c r="P11" s="111"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -5975,7 +5969,7 @@
       </c>
       <c r="U11" s="29"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="113"/>
+      <c r="W11" s="112"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="36" t="s">
         <v>66</v>
@@ -5984,41 +5978,41 @@
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="113" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="39"/>
-    </row>
-    <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="114" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="41" t="s">
+      <c r="D12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="93"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="92"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="98"/>
+      <c r="P12" s="97"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -6034,7 +6028,7 @@
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -6042,50 +6036,50 @@
         <v>2</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="13"/>
       <c r="AF12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="114" t="n">
+      <c r="A13" s="113" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="93" t="n">
+      <c r="F13" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>54491472</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="93" t="s">
+      <c r="K13" s="94"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="98"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="n">
@@ -6109,49 +6103,49 @@
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="114" t="n">
+      <c r="A14" s="113" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="115" t="s">
-        <v>75</v>
+        <v>156</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="93" t="n">
+      <c r="F14" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="44" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O14" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="98"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="n">
@@ -6175,49 +6169,49 @@
       </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="114" t="n">
+      <c r="A15" s="113" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="93" t="n">
+      <c r="F15" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="92"/>
       <c r="I15" s="44" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="47" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="93" t="s">
+      <c r="K15" s="94"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="n">
@@ -6241,49 +6235,49 @@
       </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="n">
+      <c r="A16" s="113" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="93" t="n">
+      <c r="F16" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="44" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="47" t="n">
         <v>40822938</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="93" t="s">
+      <c r="K16" s="94"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="98" t="s">
+      <c r="O16" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="98"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11" t="n">
@@ -6307,49 +6301,49 @@
       </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="114" t="n">
+      <c r="A17" s="113" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="93" t="n">
+      <c r="F17" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="44" t="s">
         <v>47</v>
       </c>
       <c r="J17" s="47" t="n">
         <v>54491069</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="93" t="s">
+      <c r="K17" s="94"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="98"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="n">
@@ -6373,49 +6367,49 @@
       </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="114" t="n">
+      <c r="A18" s="113" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="93" t="n">
+      <c r="F18" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="116" t="s">
+      <c r="J18" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="93" t="s">
+      <c r="K18" s="94"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="98" t="s">
+      <c r="O18" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="98"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11" t="n">
@@ -6439,49 +6433,49 @@
       </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="114" t="n">
+      <c r="A19" s="113" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="93" t="n">
+      <c r="F19" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="92"/>
       <c r="I19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="116" t="s">
+      <c r="J19" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="93" t="s">
+      <c r="K19" s="94"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="98"/>
+      <c r="P19" s="97"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11" t="n">
@@ -6505,49 +6499,49 @@
       </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="114" t="n">
+      <c r="A20" s="113" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="92"/>
       <c r="I20" s="44" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="97" t="s">
+      <c r="K20" s="94"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="96" t="s">
         <v>40</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="98"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11" t="n">
@@ -6571,49 +6565,49 @@
       </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="114" t="n">
+      <c r="A21" s="113" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="118" t="n">
+      <c r="J21" s="117" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="93" t="s">
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="92" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="98"/>
+      <c r="P21" s="97"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
       <c r="S21" s="11" t="n">
@@ -6637,14 +6631,14 @@
       </c>
       <c r="AC21" s="6"/>
       <c r="AD21" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="119"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE21"/>
@@ -6676,43 +6670,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="121" t="s">
+      <c r="L1" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="120" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6723,7 +6717,7 @@
       <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="121" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
+++ b/Projects/CCRUFIFA2018/Data/FIFA KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Permanent Concession" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,6 +41,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Permanent Concession'!$A$1:$AE$24</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
@@ -63,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">FFF!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -617,7 +619,7 @@
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -674,12 +676,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -809,7 +805,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,8 +874,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -906,6 +902,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1058,6 +1058,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1106,10 +1110,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1132,6 +1132,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1298,7 +1302,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1393,21 +1397,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.57085020242915"/>
@@ -1415,10 +1419,10 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="24" min="22" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="28" min="26" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1619,7 +1623,7 @@
         <v>42</v>
       </c>
       <c r="V3" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1684,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1749,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="V5" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.028571</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1814,7 +1818,7 @@
         <v>42</v>
       </c>
       <c r="V6" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1879,7 +1883,7 @@
         <v>42</v>
       </c>
       <c r="V7" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1944,7 +1948,7 @@
         <v>42</v>
       </c>
       <c r="V8" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -2009,7 +2013,7 @@
         <v>42</v>
       </c>
       <c r="V9" s="17" t="n">
-        <v>0.0286</v>
+        <v>0.0285715</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -2073,7 +2077,7 @@
       <c r="U10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="17" t="n">
+      <c r="V10" s="24" t="n">
         <v>0.2</v>
       </c>
       <c r="W10" s="3"/>
@@ -2089,65 +2093,65 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="34" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34" t="s">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="36" t="s">
+      <c r="U11" s="30"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="38" t="s">
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="39"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+      <c r="A12" s="41" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2175,12 +2179,12 @@
       <c r="U12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="42" t="n">
+      <c r="V12" s="43" t="n">
         <v>0.3</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="36" t="s">
+      <c r="Y12" s="37" t="s">
         <v>71</v>
       </c>
       <c r="Z12" s="3"/>
@@ -2195,16 +2199,16 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="n">
+      <c r="A13" s="41" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="44" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -2215,10 +2219,10 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="45" t="n">
+      <c r="J13" s="46" t="n">
         <v>54491472</v>
       </c>
       <c r="K13" s="16"/>
@@ -2244,7 +2248,7 @@
       <c r="U13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="46" t="n">
+      <c r="V13" s="47" t="n">
         <v>0.06</v>
       </c>
       <c r="W13" s="3"/>
@@ -2256,22 +2260,22 @@
         <v>3</v>
       </c>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AD13" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+      <c r="A14" s="41" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -2282,10 +2286,10 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="48" t="s">
         <v>77</v>
       </c>
       <c r="K14" s="16"/>
@@ -2311,7 +2315,7 @@
       <c r="U14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="46" t="n">
+      <c r="V14" s="47" t="n">
         <v>0.06</v>
       </c>
       <c r="W14" s="3"/>
@@ -2323,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="41" t="s">
+      <c r="AD14" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
+      <c r="A15" s="41" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -2349,10 +2353,10 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="45" t="n">
+      <c r="J15" s="46" t="n">
         <v>5449000131836</v>
       </c>
       <c r="K15" s="16"/>
@@ -2378,7 +2382,7 @@
       <c r="U15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="46" t="n">
+      <c r="V15" s="47" t="n">
         <v>0.02667</v>
       </c>
       <c r="W15" s="3"/>
@@ -2390,22 +2394,22 @@
         <v>3</v>
       </c>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="41" t="s">
+      <c r="AD15" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
+      <c r="A16" s="41" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="44" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -2416,10 +2420,10 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="45" t="n">
+      <c r="J16" s="46" t="n">
         <v>40822938</v>
       </c>
       <c r="K16" s="16"/>
@@ -2445,7 +2449,7 @@
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="46" t="n">
+      <c r="V16" s="47" t="n">
         <v>0.01332</v>
       </c>
       <c r="W16" s="3"/>
@@ -2457,22 +2461,22 @@
         <v>3</v>
       </c>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="41" t="s">
+      <c r="AD16" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
+      <c r="A17" s="41" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="44" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2483,10 +2487,10 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="45" t="n">
+      <c r="J17" s="46" t="n">
         <v>54491069</v>
       </c>
       <c r="K17" s="16"/>
@@ -2512,7 +2516,7 @@
       <c r="U17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="46" t="n">
+      <c r="V17" s="47" t="n">
         <v>0.02001</v>
       </c>
       <c r="W17" s="3"/>
@@ -2524,22 +2528,22 @@
         <v>3</v>
       </c>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="41" t="s">
+      <c r="AD17" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="n">
+      <c r="A18" s="41" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="49" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -2579,7 +2583,7 @@
       <c r="U18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="46" t="n">
+      <c r="V18" s="47" t="n">
         <v>0.02</v>
       </c>
       <c r="W18" s="3"/>
@@ -2591,22 +2595,22 @@
         <v>3</v>
       </c>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="41" t="s">
+      <c r="AD18" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40" t="n">
+      <c r="A19" s="41" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -2646,7 +2650,7 @@
       <c r="U19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V19" s="46" t="n">
+      <c r="V19" s="47" t="n">
         <v>0.06</v>
       </c>
       <c r="W19" s="3"/>
@@ -2658,22 +2662,22 @@
         <v>3</v>
       </c>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="41" t="s">
+      <c r="AD19" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="n">
+      <c r="A20" s="41" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -2684,10 +2688,10 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="45" t="n">
+      <c r="J20" s="46" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K20" s="16"/>
@@ -2713,7 +2717,7 @@
       <c r="U20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="46" t="n">
+      <c r="V20" s="47" t="n">
         <v>0.02</v>
       </c>
       <c r="W20" s="3"/>
@@ -2725,22 +2729,22 @@
         <v>3</v>
       </c>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="41" t="s">
+      <c r="AD20" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="n">
+      <c r="A21" s="41" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="44" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -2751,10 +2755,10 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="45" t="n">
+      <c r="J21" s="46" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K21" s="16"/>
@@ -2780,7 +2784,7 @@
       <c r="U21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="46" t="n">
+      <c r="V21" s="47" t="n">
         <v>0.02</v>
       </c>
       <c r="W21" s="3"/>
@@ -2792,22 +2796,22 @@
         <v>3</v>
       </c>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="41" t="s">
+      <c r="AD21" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="n">
+      <c r="A22" s="41" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -2838,10 +2842,10 @@
       <c r="T22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="46" t="n">
+      <c r="V22" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W22" s="3"/>
@@ -2857,16 +2861,16 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="n">
+      <c r="A23" s="41" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="50" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -2878,7 +2882,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="50" t="n">
+      <c r="J23" s="51" t="n">
         <v>22</v>
       </c>
       <c r="K23" s="5"/>
@@ -2897,10 +2901,10 @@
       <c r="T23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="46" t="n">
+      <c r="V23" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W23" s="3"/>
@@ -2916,16 +2920,16 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="n">
+      <c r="A24" s="41" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="52" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -2937,7 +2941,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="50" t="n">
+      <c r="J24" s="51" t="n">
         <v>23</v>
       </c>
       <c r="K24" s="5"/>
@@ -2956,10 +2960,10 @@
       <c r="T24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="U24" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="46" t="n">
+      <c r="V24" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W24" s="3"/>
@@ -2994,26 +2998,26 @@
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="55" width="66.8421052631579"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="24" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3027,7 +3031,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -3045,7 +3049,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -3099,7 +3103,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="58" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="13" t="s">
@@ -3113,7 +3117,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="n">
+      <c r="A2" s="56" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3122,7 +3126,7 @@
       <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3132,7 +3136,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="56"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="3"/>
@@ -3156,7 +3160,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="57" t="n">
+      <c r="AB2" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC2" s="13" t="s">
@@ -3166,7 +3170,7 @@
       <c r="AE2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="n">
+      <c r="A3" s="56" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3175,10 +3179,10 @@
       <c r="C3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="19" t="n">
@@ -3189,7 +3193,7 @@
       <c r="I3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="61" t="n">
+      <c r="J3" s="62" t="n">
         <v>54491472</v>
       </c>
       <c r="K3" s="16"/>
@@ -3213,15 +3217,15 @@
       <c r="U3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V3" s="63" t="n">
+        <v>0.028568</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="57" t="n">
+      <c r="AB3" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC3" s="6"/>
@@ -3231,7 +3235,7 @@
       <c r="AE3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="n">
+      <c r="A4" s="56" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3240,10 +3244,10 @@
       <c r="C4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="19" t="n">
@@ -3254,7 +3258,7 @@
       <c r="I4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="61" t="n">
+      <c r="J4" s="62" t="n">
         <v>5449000131836</v>
       </c>
       <c r="K4" s="16"/>
@@ -3278,15 +3282,15 @@
       <c r="U4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V4" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="57" t="n">
+      <c r="AB4" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC4" s="6"/>
@@ -3296,7 +3300,7 @@
       <c r="AE4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="n">
+      <c r="A5" s="56" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3305,10 +3309,10 @@
       <c r="C5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="19" t="n">
@@ -3319,7 +3323,7 @@
       <c r="I5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="61" t="n">
+      <c r="J5" s="62" t="n">
         <v>40822938</v>
       </c>
       <c r="K5" s="16"/>
@@ -3343,15 +3347,15 @@
       <c r="U5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V5" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="57" t="n">
+      <c r="AB5" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC5" s="6"/>
@@ -3361,7 +3365,7 @@
       <c r="AE5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="n">
+      <c r="A6" s="56" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -3370,10 +3374,10 @@
       <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="19" t="n">
@@ -3384,7 +3388,7 @@
       <c r="I6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="61" t="n">
+      <c r="J6" s="62" t="n">
         <v>54491069</v>
       </c>
       <c r="K6" s="16"/>
@@ -3408,15 +3412,15 @@
       <c r="U6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V6" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="57" t="n">
+      <c r="AB6" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC6" s="6"/>
@@ -3426,7 +3430,7 @@
       <c r="AE6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="n">
+      <c r="A7" s="56" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3435,10 +3439,10 @@
       <c r="C7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="19" t="n">
@@ -3473,15 +3477,15 @@
       <c r="U7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V7" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="57" t="n">
+      <c r="AB7" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC7" s="6"/>
@@ -3491,7 +3495,7 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="n">
+      <c r="A8" s="56" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3500,10 +3504,10 @@
       <c r="C8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="19" t="n">
@@ -3514,7 +3518,7 @@
       <c r="I8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="61" t="n">
+      <c r="J8" s="62" t="n">
         <v>5449000189301</v>
       </c>
       <c r="K8" s="16"/>
@@ -3538,15 +3542,15 @@
       <c r="U8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V8" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="57" t="n">
+      <c r="AB8" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC8" s="6"/>
@@ -3556,30 +3560,30 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="n">
+      <c r="A9" s="56" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="65"/>
+      <c r="I9" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="61" t="n">
+      <c r="J9" s="62" t="n">
         <v>4607174577787</v>
       </c>
       <c r="K9" s="5"/>
@@ -3603,15 +3607,15 @@
       <c r="U9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="17" t="n">
-        <v>0.0286</v>
+      <c r="V9" s="63" t="n">
+        <v>0.028572</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="57" t="n">
+      <c r="AB9" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC9" s="13"/>
@@ -3621,16 +3625,16 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55" t="n">
+      <c r="A10" s="56" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3640,11 +3644,11 @@
         <v>22</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="66" t="s">
         <v>60</v>
       </c>
       <c r="K10" s="5"/>
@@ -3668,7 +3672,7 @@
       <c r="U10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="17" t="n">
+      <c r="V10" s="24" t="n">
         <v>0.2</v>
       </c>
       <c r="W10" s="3"/>
@@ -3676,7 +3680,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="57" t="n">
+      <c r="AB10" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC10" s="13"/>
@@ -3684,26 +3688,26 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="n">
+      <c r="A11" s="56" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="67" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="3"/>
@@ -3719,15 +3723,15 @@
       <c r="U11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="42"/>
+      <c r="V11" s="43"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="66" t="s">
+      <c r="Y11" s="68" t="s">
         <v>66</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="57" t="n">
+      <c r="AB11" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC11" s="13" t="s">
@@ -3737,16 +3741,16 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55" t="n">
+      <c r="A12" s="56" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3756,12 +3760,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="56"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="69" t="s">
         <v>109</v>
       </c>
       <c r="P12" s="3"/>
@@ -3774,896 +3778,896 @@
       <c r="U12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="68" t="n">
+      <c r="V12" s="70" t="n">
         <f aca="false">SUM(V13:V18)</f>
-        <v>0.033329</v>
+        <v>0.033364</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="69" t="s">
+      <c r="Y12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="57" t="n">
+      <c r="AB12" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="41" t="s">
+      <c r="AD12" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="n">
+    <row r="13" s="81" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="60" t="n">
+      <c r="F13" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="61" t="n">
+      <c r="J13" s="62" t="n">
         <v>54491472</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="67" t="s">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="74" t="s">
+      <c r="O13" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67" t="n">
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="T13" s="67" t="n">
+      <c r="T13" s="69" t="n">
         <v>12</v>
       </c>
-      <c r="U13" s="67" t="s">
+      <c r="U13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="75" t="n">
+      <c r="V13" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="76" t="n">
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="78" t="s">
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE13" s="79"/>
-    </row>
-    <row r="14" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="n">
+      <c r="AE13" s="80"/>
+    </row>
+    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="60" t="n">
+      <c r="F14" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="61" t="n">
+      <c r="J14" s="62" t="n">
         <v>54491472</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="67" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67" t="n">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="T14" s="67" t="n">
+      <c r="T14" s="69" t="n">
         <v>13</v>
       </c>
-      <c r="U14" s="67" t="s">
+      <c r="U14" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="75" t="n">
+      <c r="V14" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="76" t="n">
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="78" t="s">
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE14" s="79"/>
-    </row>
-    <row r="15" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="n">
+      <c r="AE14" s="80"/>
+    </row>
+    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="60" t="n">
+      <c r="F15" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="61" t="n">
+      <c r="J15" s="62" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="67" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67" t="n">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="T15" s="67" t="n">
+      <c r="T15" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="U15" s="67" t="s">
+      <c r="U15" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="75" t="n">
+      <c r="V15" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="76" t="n">
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="78" t="s">
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE15" s="79"/>
-    </row>
-    <row r="16" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="n">
+      <c r="AE15" s="80"/>
+    </row>
+    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="60" t="n">
+      <c r="F16" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="61" t="n">
+      <c r="J16" s="62" t="n">
         <v>40822938</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="67" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67" t="n">
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="T16" s="67" t="n">
+      <c r="T16" s="69" t="n">
         <v>15</v>
       </c>
-      <c r="U16" s="67" t="s">
+      <c r="U16" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="75" t="n">
-        <v>0.002962</v>
-      </c>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="76" t="n">
+      <c r="V16" s="82" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="78" t="s">
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE16" s="79"/>
-    </row>
-    <row r="17" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="n">
+      <c r="AE16" s="80"/>
+    </row>
+    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="60" t="n">
+      <c r="F17" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="61" t="n">
+      <c r="J17" s="62" t="n">
         <v>54491069</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="67" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="67" t="s">
+      <c r="O17" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67" t="n">
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="T17" s="67" t="n">
+      <c r="T17" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="U17" s="67" t="s">
+      <c r="U17" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="75" t="n">
-        <v>0.003703</v>
-      </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="76" t="n">
+      <c r="V17" s="82" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="78" t="s">
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE17" s="79"/>
-    </row>
-    <row r="18" s="80" customFormat="true" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="n">
+      <c r="AE17" s="80"/>
+    </row>
+    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="60" t="n">
+      <c r="F18" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="61" t="n">
+      <c r="J18" s="62" t="n">
         <v>54491472</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="67" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67" t="n">
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="T18" s="67" t="n">
+      <c r="T18" s="69" t="n">
         <v>17</v>
       </c>
-      <c r="U18" s="67" t="s">
+      <c r="U18" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="75" t="n">
+      <c r="V18" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="76" t="n">
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="78" t="s">
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE18" s="79"/>
+      <c r="AE18" s="80"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="55" t="n">
+      <c r="A19" s="56" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="74" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="67" t="s">
+      <c r="J19" s="62"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="69"/>
+      <c r="O19" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67" t="n">
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69" t="n">
         <v>18</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="68" t="n">
+      <c r="V19" s="70" t="n">
         <f aca="false">SUM(V20:V24)</f>
         <v>0.03333</v>
       </c>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="69" t="s">
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="76" t="n">
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="AC19" s="81" t="s">
+      <c r="AC19" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="80"/>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="55" t="n">
+      <c r="A20" s="56" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="60" t="n">
+      <c r="F20" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="82" t="n">
+      <c r="J20" s="84" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="67" t="s">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="67" t="s">
+      <c r="O20" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67" t="n">
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="T20" s="67" t="n">
+      <c r="T20" s="69" t="n">
         <v>19</v>
       </c>
-      <c r="U20" s="67" t="s">
+      <c r="U20" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="75" t="n">
+      <c r="V20" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="76" t="n">
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="78" t="s">
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="AE20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="n">
+      <c r="A21" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="60" t="n">
+      <c r="F21" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="82" t="n">
+      <c r="J21" s="84" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="67" t="s">
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67" t="n">
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="T21" s="67" t="n">
+      <c r="T21" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="U21" s="67" t="s">
+      <c r="U21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="75" t="n">
+      <c r="V21" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="76" t="n">
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="78" t="s">
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="AE21" s="79"/>
+      <c r="AE21" s="80"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55" t="n">
+      <c r="A22" s="56" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="60" t="n">
+      <c r="F22" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="85" t="n">
+      <c r="J22" s="87" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="67" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67" t="n">
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="T22" s="67" t="n">
+      <c r="T22" s="69" t="n">
         <v>21</v>
       </c>
-      <c r="U22" s="67" t="s">
+      <c r="U22" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="75" t="n">
+      <c r="V22" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="76" t="n">
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="78" t="s">
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="AE22" s="79"/>
+      <c r="AE22" s="80"/>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="n">
+      <c r="A23" s="56" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="60" t="n">
+      <c r="F23" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="85" t="n">
+      <c r="J23" s="87" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="67" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="67" t="s">
+      <c r="N23" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="67" t="s">
+      <c r="O23" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67" t="n">
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="T23" s="67" t="n">
+      <c r="T23" s="69" t="n">
         <v>22</v>
       </c>
-      <c r="U23" s="67" t="s">
+      <c r="U23" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="75" t="n">
+      <c r="V23" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="76" t="n">
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="78" t="s">
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="79"/>
+      <c r="AE23" s="80"/>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="n">
+      <c r="A24" s="56" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="60" t="n">
+      <c r="F24" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="61" t="n">
+      <c r="J24" s="62" t="n">
         <v>54491472</v>
       </c>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="67" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="67" t="s">
+      <c r="O24" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67" t="n">
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="T24" s="67" t="n">
+      <c r="T24" s="69" t="n">
         <v>23</v>
       </c>
-      <c r="U24" s="67" t="s">
+      <c r="U24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="75" t="n">
+      <c r="V24" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="76" t="n">
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="78" t="s">
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="AE24" s="79"/>
+      <c r="AE24" s="80"/>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="55" t="n">
+      <c r="A25" s="56" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="74" t="s">
         <v>137</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="67" t="s">
+      <c r="J25" s="62"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67" t="s">
+      <c r="N25" s="69"/>
+      <c r="O25" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="67" t="n">
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="69" t="n">
         <v>24</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="68" t="n">
+      <c r="V25" s="70" t="n">
         <f aca="false">SUM(V26:V30)</f>
         <v>0.03333</v>
       </c>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="69" t="s">
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="76" t="n">
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="AC25" s="81" t="s">
+      <c r="AC25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="80"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="55" t="n">
+      <c r="A26" s="56" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="74" t="s">
         <v>141</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -4688,22 +4692,22 @@
       <c r="N26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="67" t="s">
+      <c r="O26" s="69" t="s">
         <v>138</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="67" t="n">
+      <c r="S26" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="T26" s="67" t="n">
+      <c r="T26" s="69" t="n">
         <v>25</v>
       </c>
-      <c r="U26" s="67" t="s">
+      <c r="U26" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="75" t="n">
+      <c r="V26" s="76" t="n">
         <v>0.006666</v>
       </c>
       <c r="W26" s="3"/>
@@ -4711,26 +4715,26 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="57" t="n">
+      <c r="AB26" s="58" t="n">
         <v>4</v>
       </c>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="78" t="s">
+      <c r="AD26" s="79" t="s">
         <v>136</v>
       </c>
       <c r="AE26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="55" t="n">
+      <c r="A27" s="56" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="88" t="s">
         <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -4755,22 +4759,22 @@
       <c r="N27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="67" t="s">
+      <c r="O27" s="69" t="s">
         <v>138</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="67" t="n">
+      <c r="S27" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="T27" s="67" t="n">
+      <c r="T27" s="69" t="n">
         <v>26</v>
       </c>
-      <c r="U27" s="67" t="s">
+      <c r="U27" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V27" s="75" t="n">
+      <c r="V27" s="76" t="n">
         <v>0.006666</v>
       </c>
       <c r="W27" s="3"/>
@@ -4778,26 +4782,26 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="57" t="n">
+      <c r="AB27" s="58" t="n">
         <v>4</v>
       </c>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="78" t="s">
+      <c r="AD27" s="79" t="s">
         <v>136</v>
       </c>
       <c r="AE27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55" t="n">
+      <c r="A28" s="56" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="88" t="s">
         <v>145</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -4822,22 +4826,22 @@
       <c r="N28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="67" t="s">
+      <c r="O28" s="69" t="s">
         <v>138</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="67" t="n">
+      <c r="S28" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="T28" s="67" t="n">
+      <c r="T28" s="69" t="n">
         <v>27</v>
       </c>
-      <c r="U28" s="67" t="s">
+      <c r="U28" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="75" t="n">
+      <c r="V28" s="76" t="n">
         <v>0.006666</v>
       </c>
       <c r="W28" s="3"/>
@@ -4845,26 +4849,26 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="57" t="n">
+      <c r="AB28" s="58" t="n">
         <v>4</v>
       </c>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="78" t="s">
+      <c r="AD28" s="79" t="s">
         <v>136</v>
       </c>
       <c r="AE28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="55" t="n">
+      <c r="A29" s="56" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="88" t="s">
         <v>147</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -4881,7 +4885,7 @@
       <c r="J29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="83"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
         <v>40</v>
@@ -4889,50 +4893,50 @@
       <c r="N29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="69" t="s">
         <v>138</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="67" t="n">
+      <c r="S29" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="T29" s="67" t="n">
+      <c r="T29" s="69" t="n">
         <v>28</v>
       </c>
-      <c r="U29" s="67" t="s">
+      <c r="U29" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V29" s="75" t="n">
+      <c r="V29" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W29" s="46"/>
+      <c r="W29" s="47"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="57" t="n">
+      <c r="AB29" s="58" t="n">
         <v>4</v>
       </c>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="78" t="s">
+      <c r="AD29" s="79" t="s">
         <v>136</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="87"/>
+      <c r="AF29" s="89"/>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="55" t="n">
+      <c r="A30" s="56" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="88" t="s">
         <v>149</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -4949,7 +4953,7 @@
       <c r="J30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="83"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
         <v>40</v>
@@ -4957,50 +4961,50 @@
       <c r="N30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="67" t="s">
+      <c r="O30" s="69" t="s">
         <v>138</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="67" t="n">
+      <c r="S30" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="T30" s="67" t="n">
+      <c r="T30" s="69" t="n">
         <v>29</v>
       </c>
-      <c r="U30" s="67" t="s">
+      <c r="U30" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V30" s="75" t="n">
+      <c r="V30" s="76" t="n">
         <v>0.006666</v>
       </c>
-      <c r="W30" s="46"/>
+      <c r="W30" s="47"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="57" t="n">
+      <c r="AB30" s="58" t="n">
         <v>4</v>
       </c>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="78" t="s">
+      <c r="AD30" s="79" t="s">
         <v>136</v>
       </c>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="88"/>
+      <c r="AF30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="55" t="n">
+      <c r="A31" s="56" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="74" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -5014,7 +5018,7 @@
       <c r="I31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="89" t="n">
+      <c r="J31" s="91" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
@@ -5029,14 +5033,14 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67" t="n">
+      <c r="S31" s="69"/>
+      <c r="T31" s="69" t="n">
         <v>30</v>
       </c>
       <c r="U31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="46" t="n">
+      <c r="V31" s="47" t="n">
         <v>0.2</v>
       </c>
       <c r="W31" s="3"/>
@@ -5044,25 +5048,25 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="57" t="n">
+      <c r="AB31" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="78"/>
+      <c r="AD31" s="79"/>
       <c r="AE31" s="13"/>
-      <c r="AF31" s="88"/>
+      <c r="AF31" s="90"/>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="55" t="n">
+      <c r="A32" s="56" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="86" t="s">
         <v>154</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -5076,7 +5080,7 @@
       <c r="I32" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J32" s="82" t="n">
+      <c r="J32" s="84" t="n">
         <v>24</v>
       </c>
       <c r="K32" s="5"/>
@@ -5092,13 +5096,13 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="67" t="n">
+      <c r="T32" s="69" t="n">
         <v>31</v>
       </c>
       <c r="U32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V32" s="46" t="n">
+      <c r="V32" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W32" s="3"/>
@@ -5106,7 +5110,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="57" t="n">
+      <c r="AB32" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC32" s="2"/>
@@ -5114,16 +5118,16 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="55" t="n">
+      <c r="A33" s="56" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="86" t="s">
         <v>100</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -5137,7 +5141,7 @@
       <c r="I33" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="82" t="n">
+      <c r="J33" s="84" t="n">
         <v>23</v>
       </c>
       <c r="K33" s="5"/>
@@ -5153,13 +5157,13 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="67" t="n">
+      <c r="T33" s="69" t="n">
         <v>32</v>
       </c>
       <c r="U33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V33" s="46" t="n">
+      <c r="V33" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W33" s="3"/>
@@ -5167,7 +5171,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="57" t="n">
+      <c r="AB33" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC33" s="2"/>
@@ -5175,16 +5179,16 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="55" t="n">
+      <c r="A34" s="56" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="42" t="s">
         <v>156</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -5198,7 +5202,7 @@
       <c r="I34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="82" t="n">
+      <c r="J34" s="84" t="n">
         <v>16</v>
       </c>
       <c r="K34" s="5"/>
@@ -5214,13 +5218,13 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="67" t="n">
+      <c r="T34" s="69" t="n">
         <v>33</v>
       </c>
       <c r="U34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V34" s="46" t="n">
+      <c r="V34" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="W34" s="3"/>
@@ -5228,7 +5232,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="57" t="n">
+      <c r="AB34" s="58" t="n">
         <v>2</v>
       </c>
       <c r="AC34" s="2"/>
@@ -5259,24 +5263,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="54" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="55" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="24" min="23" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="53" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="54" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5311,7 +5315,7 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="92" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5362,7 +5366,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="58" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="7" t="s">
@@ -5376,34 +5380,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91" t="n">
+      <c r="A2" s="93" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="94"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="98"/>
+      <c r="P2" s="100"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -5431,44 +5435,44 @@
       <c r="AF2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="91" t="n">
+      <c r="A3" s="93" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="100" t="n">
+      <c r="F3" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="102" t="n">
+      <c r="J3" s="104" t="n">
         <v>54491472</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103" t="s">
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="98"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5478,7 +5482,7 @@
       <c r="U3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="V3" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X3" s="3"/>
@@ -5495,44 +5499,44 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="91" t="n">
+      <c r="A4" s="93" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="100" t="n">
+      <c r="F4" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="102" t="n">
+      <c r="J4" s="104" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="98"/>
+      <c r="P4" s="100"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -5542,7 +5546,7 @@
       <c r="U4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X4" s="3"/>
@@ -5559,44 +5563,44 @@
       <c r="AF4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91" t="n">
+      <c r="A5" s="93" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="100" t="n">
+      <c r="F5" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="102" t="n">
+      <c r="J5" s="104" t="n">
         <v>40822938</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103" t="s">
+      <c r="K5" s="97"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="98"/>
+      <c r="P5" s="100"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -5606,7 +5610,7 @@
       <c r="U5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="17" t="n">
+      <c r="V5" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X5" s="3"/>
@@ -5623,44 +5627,44 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="91" t="n">
+      <c r="A6" s="93" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="100" t="n">
+      <c r="F6" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="102" t="n">
+      <c r="J6" s="104" t="n">
         <v>54491069</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="98" t="s">
+      <c r="O6" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="98"/>
+      <c r="P6" s="100"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -5670,7 +5674,7 @@
       <c r="U6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="17" t="n">
+      <c r="V6" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X6" s="3"/>
@@ -5687,44 +5691,44 @@
       <c r="AF6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91" t="n">
+      <c r="A7" s="93" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="100" t="n">
+      <c r="F7" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="102" t="n">
+      <c r="J7" s="104" t="n">
         <v>40822426</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="98"/>
+      <c r="P7" s="100"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -5734,7 +5738,7 @@
       <c r="U7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="17" t="n">
+      <c r="V7" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X7" s="3"/>
@@ -5751,44 +5755,44 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="91" t="n">
+      <c r="A8" s="93" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="100" t="n">
+      <c r="F8" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="102" t="n">
+      <c r="J8" s="104" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103" t="s">
+      <c r="K8" s="97"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="98"/>
+      <c r="P8" s="100"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -5798,7 +5802,7 @@
       <c r="U8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="17" t="n">
+      <c r="V8" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X8" s="3"/>
@@ -5815,44 +5819,44 @@
       <c r="AF8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91" t="n">
+      <c r="A9" s="93" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="100" t="n">
+      <c r="F9" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="102" t="n">
+      <c r="J9" s="104" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99" t="s">
         <v>40</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="98" t="s">
+      <c r="O9" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="98"/>
+      <c r="P9" s="100"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5862,7 +5866,7 @@
       <c r="U9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="17" t="n">
+      <c r="V9" s="24" t="n">
         <v>0.04714</v>
       </c>
       <c r="X9" s="3"/>
@@ -5879,44 +5883,44 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91" t="n">
+      <c r="A10" s="93" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="100" t="n">
+      <c r="F10" s="102" t="n">
         <v>22</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97" t="s">
+      <c r="K10" s="97"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="98" t="s">
+      <c r="O10" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="98"/>
+      <c r="P10" s="100"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -5926,7 +5930,7 @@
       <c r="U10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="17" t="n">
+      <c r="V10" s="24" t="n">
         <v>0.33</v>
       </c>
       <c r="X10" s="3"/>
@@ -5941,84 +5945,84 @@
       <c r="AF10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="67.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="106"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="112" t="s">
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34" t="s">
+      <c r="P11" s="114"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="36" t="s">
+      <c r="U11" s="30"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="38" t="s">
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="39"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="115"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="114" t="n">
+      <c r="A12" s="116" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="94"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="93"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="95"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="98"/>
+      <c r="P12" s="100"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -6028,12 +6032,12 @@
       <c r="U12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="42" t="n">
+      <c r="V12" s="43" t="n">
         <f aca="false">SUM(V13:V21)</f>
         <v>0.34</v>
       </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="36" t="s">
+      <c r="Y12" s="37" t="s">
         <v>71</v>
       </c>
       <c r="Z12" s="3"/>
@@ -6048,44 +6052,44 @@
       <c r="AF12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="114" t="n">
+      <c r="A13" s="116" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="93" t="n">
+      <c r="F13" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="44" t="s">
+      <c r="G13" s="97"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="47" t="n">
+      <c r="J13" s="48" t="n">
         <v>54491472</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="93" t="s">
+      <c r="K13" s="97"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="98"/>
+      <c r="P13" s="100"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="n">
@@ -6097,7 +6101,7 @@
       <c r="U13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="46" t="n">
+      <c r="V13" s="47" t="n">
         <v>0.068</v>
       </c>
       <c r="X13" s="3"/>
@@ -6108,50 +6112,50 @@
         <v>3</v>
       </c>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AD13" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="114" t="n">
+      <c r="A14" s="116" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="93" t="n">
+      <c r="F14" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="44" t="s">
+      <c r="G14" s="97"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="93" t="s">
+      <c r="K14" s="97"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O14" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="98"/>
+      <c r="P14" s="100"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="n">
@@ -6163,7 +6167,7 @@
       <c r="U14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V14" s="46" t="n">
+      <c r="V14" s="47" t="n">
         <v>0.068</v>
       </c>
       <c r="X14" s="3"/>
@@ -6174,50 +6178,50 @@
         <v>3</v>
       </c>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="41" t="s">
+      <c r="AD14" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="114" t="n">
+      <c r="A15" s="116" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="93" t="n">
+      <c r="F15" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="44" t="s">
+      <c r="G15" s="97"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="47" t="n">
+      <c r="J15" s="48" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="93" t="s">
+      <c r="K15" s="97"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="100"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="n">
@@ -6229,7 +6233,7 @@
       <c r="U15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="46" t="n">
+      <c r="V15" s="47" t="n">
         <v>0.030226</v>
       </c>
       <c r="X15" s="3"/>
@@ -6240,50 +6244,50 @@
         <v>3</v>
       </c>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="41" t="s">
+      <c r="AD15" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="n">
+      <c r="A16" s="116" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="93" t="n">
+      <c r="F16" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="44" t="s">
+      <c r="G16" s="97"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="47" t="n">
+      <c r="J16" s="48" t="n">
         <v>40822938</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="93" t="s">
+      <c r="K16" s="97"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="98" t="s">
+      <c r="O16" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="98"/>
+      <c r="P16" s="100"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11" t="n">
@@ -6295,7 +6299,7 @@
       <c r="U16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="46" t="n">
+      <c r="V16" s="47" t="n">
         <v>0.015096</v>
       </c>
       <c r="X16" s="3"/>
@@ -6306,50 +6310,50 @@
         <v>3</v>
       </c>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="41" t="s">
+      <c r="AD16" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="114" t="n">
+      <c r="A17" s="116" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="93" t="n">
+      <c r="F17" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="44" t="s">
+      <c r="G17" s="97"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="47" t="n">
+      <c r="J17" s="48" t="n">
         <v>54491069</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="93" t="s">
+      <c r="K17" s="97"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="98"/>
+      <c r="P17" s="100"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="n">
@@ -6361,7 +6365,7 @@
       <c r="U17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="46" t="n">
+      <c r="V17" s="47" t="n">
         <v>0.022678</v>
       </c>
       <c r="X17" s="3"/>
@@ -6372,50 +6376,50 @@
         <v>3</v>
       </c>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="41" t="s">
+      <c r="AD17" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="114" t="n">
+      <c r="A18" s="116" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="93" t="n">
+      <c r="F18" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="93"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="116" t="s">
+      <c r="J18" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="93" t="s">
+      <c r="K18" s="97"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="98" t="s">
+      <c r="O18" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="98"/>
+      <c r="P18" s="100"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11" t="n">
@@ -6427,7 +6431,7 @@
       <c r="U18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="46" t="n">
+      <c r="V18" s="47" t="n">
         <v>0.0226666666666667</v>
       </c>
       <c r="X18" s="3"/>
@@ -6438,50 +6442,50 @@
         <v>3</v>
       </c>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="41" t="s">
+      <c r="AD18" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="114" t="n">
+      <c r="A19" s="116" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="93" t="n">
+      <c r="F19" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="93"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="116" t="s">
+      <c r="J19" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="93" t="s">
+      <c r="K19" s="97"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="98"/>
+      <c r="P19" s="100"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11" t="n">
@@ -6493,7 +6497,7 @@
       <c r="U19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V19" s="46" t="n">
+      <c r="V19" s="47" t="n">
         <v>0.068</v>
       </c>
       <c r="X19" s="3"/>
@@ -6504,50 +6508,50 @@
         <v>3</v>
       </c>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="41" t="s">
+      <c r="AD19" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="114" t="n">
+      <c r="A20" s="116" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="44" t="s">
+      <c r="G20" s="97"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="47" t="n">
+      <c r="J20" s="48" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="97" t="s">
+      <c r="K20" s="97"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="99" t="s">
         <v>40</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="98"/>
+      <c r="P20" s="100"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11" t="n">
@@ -6559,7 +6563,7 @@
       <c r="U20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="46" t="n">
+      <c r="V20" s="47" t="n">
         <v>0.0226666666666667</v>
       </c>
       <c r="X20" s="3"/>
@@ -6570,50 +6574,50 @@
         <v>3</v>
       </c>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="41" t="s">
+      <c r="AD20" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="114" t="n">
+      <c r="A21" s="116" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="93"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="118" t="n">
+      <c r="J21" s="120" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="93" t="s">
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="95" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="98"/>
+      <c r="P21" s="100"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
       <c r="S21" s="11" t="n">
@@ -6625,10 +6629,10 @@
       <c r="U21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="46" t="n">
+      <c r="V21" s="47" t="n">
         <v>0.0226666666666667</v>
       </c>
-      <c r="X21" s="46"/>
+      <c r="X21" s="47"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -6636,15 +6640,15 @@
         <v>3</v>
       </c>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="41" t="s">
+      <c r="AD21" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AF21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="119"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE21"/>
@@ -6676,43 +6680,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="121" t="s">
+      <c r="L1" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="123" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6723,7 +6727,7 @@
       <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="124" t="s">
         <v>166</v>
       </c>
     </row>
